--- a/Sprawozdania/Scenariusz 4/Wyniki do scenariusza 4.xlsx
+++ b/Sprawozdania/Scenariusz 4/Wyniki do scenariusza 4.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ania\Desktop\PSI scenariusz 4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ania\IdeaProjects\Sprawozdania\Scenariusz 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="87">
   <si>
     <t>TRENING</t>
   </si>
@@ -211,6 +211,81 @@
   <si>
     <t>UCZENIE 8</t>
   </si>
+  <si>
+    <t>Zależność ilości epok od współczynnika uczenia się i zapominania</t>
+  </si>
+  <si>
+    <t>LEARNING_RATE</t>
+  </si>
+  <si>
+    <t>EPOCHS</t>
+  </si>
+  <si>
+    <t>ERROR</t>
+  </si>
+  <si>
+    <t>FORGETTING_RATE</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Emotikona test 1</t>
+  </si>
+  <si>
+    <t>Emotikona test 2</t>
+  </si>
+  <si>
+    <t>Emotikona test 3</t>
+  </si>
+  <si>
+    <t>Emotikona test 4</t>
+  </si>
+  <si>
+    <t>Emotikona test 5</t>
+  </si>
+  <si>
+    <t>Emotikonatest 6</t>
+  </si>
+  <si>
+    <t>nr emotikony uczącej</t>
+  </si>
+  <si>
+    <t>Emotikona ucząca  1</t>
+  </si>
+  <si>
+    <t>Emotikona ucząca  2</t>
+  </si>
+  <si>
+    <t>Emotikona ucząca  3</t>
+  </si>
+  <si>
+    <t>Emotikona ucząca  4</t>
+  </si>
+  <si>
+    <t>Emotikona testująca  1</t>
+  </si>
+  <si>
+    <t>Emotikona testująca  2</t>
+  </si>
+  <si>
+    <t>Emotikona testująca 3</t>
+  </si>
+  <si>
+    <t>Emotikona testująca 4</t>
+  </si>
+  <si>
+    <t>Emotikona testująca  5</t>
+  </si>
+  <si>
+    <t>Emotikona testująca  6</t>
+  </si>
+  <si>
+    <t>TEST 7</t>
+  </si>
+  <si>
+    <t>TEST 8</t>
+  </si>
 </sst>
 </file>
 
@@ -275,7 +350,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -318,8 +393,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="24">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -656,11 +737,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -715,7 +805,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
@@ -725,15 +814,25 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -756,6 +855,1123 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Zależność ilości epok od</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> stałej uczenia</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>ze współczynnikiem zapominania</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$AV$118:$AV$121</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$AX$118:$AX$121</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1350</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>bez współczynnika zapominania</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$AV$125:$AV$128</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$AX$125:$AX$128</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3250</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>130</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="376264848"/>
+        <c:axId val="377989456"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="376264848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Współczynnik</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:t> uczenia się</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="377989456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="377989456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Liczba</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:t> epok</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="376264848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -766,8 +1982,8 @@
       <xdr:rowOff>100012</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>50</xdr:col>
-      <xdr:colOff>409202</xdr:colOff>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>300344</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>56589</xdr:rowOff>
     </xdr:to>
@@ -1075,7 +2291,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>179</xdr:col>
-      <xdr:colOff>519968</xdr:colOff>
+      <xdr:colOff>519967</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>119222</xdr:rowOff>
     </xdr:to>
@@ -1108,6 +2324,36 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>288226</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>40822</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>1306286</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>54179</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Wykres 11"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1376,10 +2622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:FQ111"/>
+  <dimension ref="B2:FQ128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="EI1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="FI4" sqref="FI4"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Z86" sqref="Z86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1392,19 +2638,22 @@
     <col min="41" max="41" width="15.42578125" customWidth="1"/>
     <col min="42" max="42" width="11.42578125" customWidth="1"/>
     <col min="48" max="48" width="25.85546875" customWidth="1"/>
+    <col min="49" max="49" width="20" customWidth="1"/>
+    <col min="51" max="51" width="22.5703125" customWidth="1"/>
+    <col min="52" max="52" width="11.42578125" customWidth="1"/>
     <col min="55" max="55" width="16" customWidth="1"/>
     <col min="56" max="56" width="16.140625" customWidth="1"/>
     <col min="57" max="57" width="15" customWidth="1"/>
     <col min="58" max="58" width="11.85546875" customWidth="1"/>
     <col min="64" max="64" width="18.7109375" customWidth="1"/>
     <col min="72" max="72" width="13.140625" customWidth="1"/>
-    <col min="73" max="73" width="8.28515625" customWidth="1"/>
+    <col min="73" max="73" width="15.42578125" customWidth="1"/>
     <col min="74" max="74" width="14.28515625" customWidth="1"/>
     <col min="75" max="75" width="15.7109375" customWidth="1"/>
     <col min="83" max="83" width="15" customWidth="1"/>
     <col min="91" max="91" width="13.85546875" customWidth="1"/>
     <col min="93" max="93" width="18" customWidth="1"/>
-    <col min="94" max="94" width="13.28515625" customWidth="1"/>
+    <col min="94" max="94" width="17" customWidth="1"/>
     <col min="95" max="95" width="16.42578125" customWidth="1"/>
     <col min="96" max="96" width="17.5703125" customWidth="1"/>
     <col min="104" max="104" width="15.42578125" customWidth="1"/>
@@ -1435,6 +2684,27 @@
       <c r="B3" t="s">
         <v>1</v>
       </c>
+      <c r="C3" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="O3" s="61" t="s">
+        <v>76</v>
+      </c>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="61"/>
+      <c r="R3" s="61"/>
+      <c r="S3" s="61"/>
+      <c r="AA3" s="61" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB3" s="61"/>
+      <c r="AC3" s="61"/>
+      <c r="AD3" s="61"/>
+      <c r="AE3" s="61"/>
       <c r="AM3" t="s">
         <v>4</v>
       </c>
@@ -2686,7 +3956,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:168" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="2:168" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="61"/>
+      <c r="O16" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="P16" s="61"/>
+      <c r="Q16" s="61"/>
+      <c r="R16" s="61"/>
+      <c r="S16" s="61"/>
+      <c r="AB16" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC16" s="61"/>
+      <c r="AD16" s="61"/>
+      <c r="AE16" s="61"/>
+      <c r="AF16" s="61"/>
+    </row>
     <row r="17" spans="2:173" x14ac:dyDescent="0.25">
       <c r="C17" s="1">
         <v>0</v>
@@ -3607,38 +4899,105 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:173" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="2:173" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DG28" s="65"/>
+      <c r="DH28" s="65"/>
+    </row>
     <row r="29" spans="2:173" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>2</v>
       </c>
+      <c r="CQ29" s="65"/>
+      <c r="CR29" s="65"/>
       <c r="DF29" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="DG29" s="32"/>
-      <c r="DH29" s="32"/>
-      <c r="DI29" s="32"/>
-      <c r="DJ29" s="32"/>
-      <c r="DK29" s="32"/>
-      <c r="DL29" s="22"/>
+      <c r="DG29" s="66">
+        <v>1</v>
+      </c>
+      <c r="DH29" s="66">
+        <v>2</v>
+      </c>
+      <c r="DI29" s="66">
+        <v>3</v>
+      </c>
+      <c r="DJ29" s="66">
+        <v>4</v>
+      </c>
+      <c r="DK29" s="66">
+        <v>5</v>
+      </c>
+      <c r="DL29" s="67">
+        <v>6</v>
+      </c>
+      <c r="DZ29" s="65"/>
+      <c r="EA29" s="65"/>
+      <c r="EQ29" s="65"/>
+      <c r="ER29" s="65"/>
+      <c r="FL29" s="65" t="s">
+        <v>74</v>
+      </c>
+      <c r="FM29" s="65"/>
     </row>
     <row r="30" spans="2:173" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>3</v>
       </c>
+      <c r="D30" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="E30" s="51"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="51"/>
+      <c r="O30" s="61" t="s">
+        <v>80</v>
+      </c>
+      <c r="P30" s="61"/>
+      <c r="Q30" s="61"/>
+      <c r="R30" s="61"/>
+      <c r="S30" s="61"/>
+      <c r="T30" s="61"/>
+      <c r="U30" s="61"/>
+      <c r="AC30" s="61" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD30" s="61"/>
+      <c r="AE30" s="61"/>
+      <c r="AF30" s="61"/>
+      <c r="AG30" s="61"/>
+      <c r="AH30" s="61"/>
+      <c r="AO30" s="65"/>
+      <c r="AP30" s="65"/>
+      <c r="BE30" s="65"/>
+      <c r="BF30" s="65"/>
+      <c r="BV30" s="65"/>
+      <c r="BW30" s="65"/>
       <c r="CP30" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="CQ30" s="32"/>
-      <c r="CR30" s="32"/>
-      <c r="CS30" s="32"/>
-      <c r="CT30" s="32"/>
-      <c r="CU30" s="32"/>
-      <c r="CV30" s="22"/>
+      <c r="CQ30" s="66">
+        <v>1</v>
+      </c>
+      <c r="CR30" s="66">
+        <v>2</v>
+      </c>
+      <c r="CS30" s="66">
+        <v>3</v>
+      </c>
+      <c r="CT30" s="66">
+        <v>4</v>
+      </c>
+      <c r="CU30" s="66">
+        <v>5</v>
+      </c>
+      <c r="CV30" s="67">
+        <v>6</v>
+      </c>
       <c r="DF30" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="DG30" s="54">
+      <c r="DG30" s="53">
         <v>0.95479999999999998</v>
       </c>
       <c r="DH30" s="33">
@@ -3659,78 +5018,150 @@
       <c r="DY30" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="DZ30" s="32"/>
-      <c r="EA30" s="32"/>
-      <c r="EB30" s="32"/>
-      <c r="EC30" s="32"/>
-      <c r="ED30" s="32"/>
-      <c r="EE30" s="22"/>
+      <c r="DZ30" s="66">
+        <v>1</v>
+      </c>
+      <c r="EA30" s="66">
+        <v>2</v>
+      </c>
+      <c r="EB30" s="66">
+        <v>3</v>
+      </c>
+      <c r="EC30" s="66">
+        <v>4</v>
+      </c>
+      <c r="ED30" s="66">
+        <v>5</v>
+      </c>
+      <c r="EE30" s="67">
+        <v>6</v>
+      </c>
       <c r="EP30" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="EQ30" s="32"/>
-      <c r="ER30" s="32"/>
-      <c r="ES30" s="32"/>
-      <c r="ET30" s="32"/>
-      <c r="EU30" s="32"/>
-      <c r="EV30" s="22"/>
+      <c r="EQ30" s="66">
+        <v>1</v>
+      </c>
+      <c r="ER30" s="66">
+        <v>2</v>
+      </c>
+      <c r="ES30" s="66">
+        <v>3</v>
+      </c>
+      <c r="ET30" s="66">
+        <v>4</v>
+      </c>
+      <c r="EU30" s="66">
+        <v>5</v>
+      </c>
+      <c r="EV30" s="67">
+        <v>6</v>
+      </c>
       <c r="FK30" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="FL30" s="32"/>
-      <c r="FM30" s="32"/>
-      <c r="FN30" s="32"/>
-      <c r="FO30" s="32"/>
-      <c r="FP30" s="32"/>
-      <c r="FQ30" s="22"/>
+      <c r="FL30" s="66">
+        <v>1</v>
+      </c>
+      <c r="FM30" s="66">
+        <v>2</v>
+      </c>
+      <c r="FN30" s="66">
+        <v>3</v>
+      </c>
+      <c r="FO30" s="66">
+        <v>4</v>
+      </c>
+      <c r="FP30" s="66">
+        <v>5</v>
+      </c>
+      <c r="FQ30" s="67">
+        <v>6</v>
+      </c>
     </row>
     <row r="31" spans="2:173" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AN31" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="AO31" s="32"/>
-      <c r="AP31" s="32"/>
-      <c r="AQ31" s="32"/>
-      <c r="AR31" s="32"/>
-      <c r="AS31" s="32"/>
-      <c r="AT31" s="22"/>
+      <c r="AO31" s="66">
+        <v>1</v>
+      </c>
+      <c r="AP31" s="66">
+        <v>2</v>
+      </c>
+      <c r="AQ31" s="66">
+        <v>3</v>
+      </c>
+      <c r="AR31" s="66">
+        <v>4</v>
+      </c>
+      <c r="AS31" s="66">
+        <v>5</v>
+      </c>
+      <c r="AT31" s="67">
+        <v>6</v>
+      </c>
       <c r="BD31" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="BE31" s="32"/>
-      <c r="BF31" s="32"/>
-      <c r="BG31" s="32"/>
-      <c r="BH31" s="32"/>
-      <c r="BI31" s="32"/>
-      <c r="BJ31" s="22"/>
+      <c r="BE31" s="66">
+        <v>1</v>
+      </c>
+      <c r="BF31" s="66">
+        <v>2</v>
+      </c>
+      <c r="BG31" s="66">
+        <v>3</v>
+      </c>
+      <c r="BH31" s="66">
+        <v>4</v>
+      </c>
+      <c r="BI31" s="66">
+        <v>5</v>
+      </c>
+      <c r="BJ31" s="67">
+        <v>6</v>
+      </c>
       <c r="BU31" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="BV31" s="32"/>
-      <c r="BW31" s="32"/>
-      <c r="BX31" s="32"/>
-      <c r="BY31" s="32"/>
-      <c r="BZ31" s="32"/>
-      <c r="CA31" s="22"/>
+      <c r="BV31" s="66">
+        <v>1</v>
+      </c>
+      <c r="BW31" s="66">
+        <v>2</v>
+      </c>
+      <c r="BX31" s="66">
+        <v>3</v>
+      </c>
+      <c r="BY31" s="66">
+        <v>4</v>
+      </c>
+      <c r="BZ31" s="66">
+        <v>5</v>
+      </c>
+      <c r="CA31" s="67">
+        <v>6</v>
+      </c>
       <c r="CP31" s="46" t="s">
         <v>11</v>
       </c>
       <c r="CQ31" s="34">
         <v>0.9577</v>
       </c>
-      <c r="CR31" s="33">
+      <c r="CR31" s="49">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="CS31" s="33">
+      <c r="CS31" s="49">
         <v>1.35E-2</v>
       </c>
-      <c r="CT31" s="33">
+      <c r="CT31" s="49">
         <v>1E-4</v>
       </c>
-      <c r="CU31" s="33">
+      <c r="CU31" s="49">
         <v>2.3800000000000002E-2</v>
       </c>
-      <c r="CV31" s="24">
+      <c r="CV31" s="50">
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="DF31" s="46" t="s">
@@ -3757,7 +5188,7 @@
       <c r="DY31" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="DZ31" s="54">
+      <c r="DZ31" s="53">
         <v>0.9728</v>
       </c>
       <c r="EA31" s="33">
@@ -3778,7 +5209,7 @@
       <c r="EP31" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="EQ31" s="54">
+      <c r="EQ31" s="53">
         <v>0.86980000000000002</v>
       </c>
       <c r="ER31" s="33">
@@ -4254,12 +5685,12 @@
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="DF33" s="46"/>
-      <c r="DG33" s="50"/>
-      <c r="DH33" s="50"/>
-      <c r="DI33" s="50"/>
-      <c r="DJ33" s="50"/>
-      <c r="DK33" s="50"/>
-      <c r="DL33" s="51"/>
+      <c r="DG33" s="49"/>
+      <c r="DH33" s="49"/>
+      <c r="DI33" s="49"/>
+      <c r="DJ33" s="49"/>
+      <c r="DK33" s="49"/>
+      <c r="DL33" s="50"/>
       <c r="DY33" s="46" t="s">
         <v>12</v>
       </c>
@@ -4479,40 +5910,40 @@
         <v>1.5599999999999999E-2</v>
       </c>
       <c r="CP34" s="46"/>
-      <c r="CQ34" s="50"/>
-      <c r="CR34" s="50"/>
-      <c r="CS34" s="50"/>
-      <c r="CT34" s="50"/>
-      <c r="CU34" s="50"/>
-      <c r="CV34" s="51"/>
+      <c r="CQ34" s="49"/>
+      <c r="CR34" s="49"/>
+      <c r="CS34" s="49"/>
+      <c r="CT34" s="49"/>
+      <c r="CU34" s="49"/>
+      <c r="CV34" s="50"/>
       <c r="DF34" s="46"/>
-      <c r="DG34" s="50"/>
-      <c r="DH34" s="50"/>
-      <c r="DI34" s="50"/>
-      <c r="DJ34" s="50"/>
-      <c r="DK34" s="50"/>
-      <c r="DL34" s="51"/>
+      <c r="DG34" s="49"/>
+      <c r="DH34" s="49"/>
+      <c r="DI34" s="49"/>
+      <c r="DJ34" s="49"/>
+      <c r="DK34" s="49"/>
+      <c r="DL34" s="50"/>
       <c r="DY34" s="46"/>
-      <c r="DZ34" s="50"/>
-      <c r="EA34" s="50"/>
-      <c r="EB34" s="50"/>
-      <c r="EC34" s="50"/>
-      <c r="ED34" s="50"/>
-      <c r="EE34" s="51"/>
+      <c r="DZ34" s="49"/>
+      <c r="EA34" s="49"/>
+      <c r="EB34" s="49"/>
+      <c r="EC34" s="49"/>
+      <c r="ED34" s="49"/>
+      <c r="EE34" s="50"/>
       <c r="EP34" s="46"/>
-      <c r="EQ34" s="50"/>
-      <c r="ER34" s="50"/>
-      <c r="ES34" s="50"/>
-      <c r="ET34" s="50"/>
-      <c r="EU34" s="50"/>
-      <c r="EV34" s="51"/>
+      <c r="EQ34" s="49"/>
+      <c r="ER34" s="49"/>
+      <c r="ES34" s="49"/>
+      <c r="ET34" s="49"/>
+      <c r="EU34" s="49"/>
+      <c r="EV34" s="50"/>
       <c r="FK34" s="46"/>
-      <c r="FL34" s="50"/>
-      <c r="FM34" s="50"/>
-      <c r="FN34" s="50"/>
-      <c r="FO34" s="50"/>
-      <c r="FP34" s="50"/>
-      <c r="FQ34" s="51"/>
+      <c r="FL34" s="49"/>
+      <c r="FM34" s="49"/>
+      <c r="FN34" s="49"/>
+      <c r="FO34" s="49"/>
+      <c r="FP34" s="49"/>
+      <c r="FQ34" s="50"/>
     </row>
     <row r="35" spans="3:173" x14ac:dyDescent="0.25">
       <c r="C35" s="10">
@@ -4620,49 +6051,49 @@
       <c r="BI35" s="33"/>
       <c r="BJ35" s="24"/>
       <c r="BU35" s="46"/>
-      <c r="BV35" s="50"/>
-      <c r="BW35" s="50"/>
-      <c r="BX35" s="50"/>
-      <c r="BY35" s="50"/>
-      <c r="BZ35" s="50"/>
-      <c r="CA35" s="51"/>
+      <c r="BV35" s="49"/>
+      <c r="BW35" s="49"/>
+      <c r="BX35" s="49"/>
+      <c r="BY35" s="49"/>
+      <c r="BZ35" s="49"/>
+      <c r="CA35" s="50"/>
       <c r="CP35" s="46"/>
-      <c r="CQ35" s="50"/>
-      <c r="CR35" s="50"/>
-      <c r="CS35" s="50"/>
-      <c r="CT35" s="50"/>
-      <c r="CU35" s="50"/>
-      <c r="CV35" s="51"/>
+      <c r="CQ35" s="49"/>
+      <c r="CR35" s="49"/>
+      <c r="CS35" s="49"/>
+      <c r="CT35" s="49"/>
+      <c r="CU35" s="49"/>
+      <c r="CV35" s="50"/>
       <c r="DF35" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="DG35" s="50"/>
-      <c r="DH35" s="50"/>
-      <c r="DI35" s="50"/>
-      <c r="DJ35" s="50"/>
-      <c r="DK35" s="50"/>
-      <c r="DL35" s="51"/>
+      <c r="DG35" s="49"/>
+      <c r="DH35" s="49"/>
+      <c r="DI35" s="49"/>
+      <c r="DJ35" s="49"/>
+      <c r="DK35" s="49"/>
+      <c r="DL35" s="50"/>
       <c r="DY35" s="46"/>
-      <c r="DZ35" s="50"/>
-      <c r="EA35" s="50"/>
-      <c r="EB35" s="50"/>
-      <c r="EC35" s="50"/>
-      <c r="ED35" s="50"/>
-      <c r="EE35" s="51"/>
+      <c r="DZ35" s="49"/>
+      <c r="EA35" s="49"/>
+      <c r="EB35" s="49"/>
+      <c r="EC35" s="49"/>
+      <c r="ED35" s="49"/>
+      <c r="EE35" s="50"/>
       <c r="EP35" s="46"/>
-      <c r="EQ35" s="50"/>
-      <c r="ER35" s="50"/>
-      <c r="ES35" s="50"/>
-      <c r="ET35" s="50"/>
-      <c r="EU35" s="50"/>
-      <c r="EV35" s="51"/>
+      <c r="EQ35" s="49"/>
+      <c r="ER35" s="49"/>
+      <c r="ES35" s="49"/>
+      <c r="ET35" s="49"/>
+      <c r="EU35" s="49"/>
+      <c r="EV35" s="50"/>
       <c r="FK35" s="46"/>
-      <c r="FL35" s="50"/>
-      <c r="FM35" s="50"/>
-      <c r="FN35" s="50"/>
-      <c r="FO35" s="50"/>
-      <c r="FP35" s="50"/>
-      <c r="FQ35" s="51"/>
+      <c r="FL35" s="49"/>
+      <c r="FM35" s="49"/>
+      <c r="FN35" s="49"/>
+      <c r="FO35" s="49"/>
+      <c r="FP35" s="49"/>
+      <c r="FQ35" s="50"/>
     </row>
     <row r="36" spans="3:173" x14ac:dyDescent="0.25">
       <c r="C36" s="10">
@@ -4770,28 +6201,28 @@
       <c r="BI36" s="33"/>
       <c r="BJ36" s="24"/>
       <c r="BU36" s="46"/>
-      <c r="BV36" s="50"/>
-      <c r="BW36" s="50"/>
-      <c r="BX36" s="50"/>
-      <c r="BY36" s="50"/>
-      <c r="BZ36" s="50"/>
-      <c r="CA36" s="51"/>
+      <c r="BV36" s="49"/>
+      <c r="BW36" s="49"/>
+      <c r="BX36" s="49"/>
+      <c r="BY36" s="49"/>
+      <c r="BZ36" s="49"/>
+      <c r="CA36" s="50"/>
       <c r="CP36" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="CQ36" s="50"/>
-      <c r="CR36" s="50"/>
-      <c r="CS36" s="50"/>
-      <c r="CT36" s="50"/>
-      <c r="CU36" s="50"/>
-      <c r="CV36" s="51"/>
+      <c r="CQ36" s="49"/>
+      <c r="CR36" s="49"/>
+      <c r="CS36" s="49"/>
+      <c r="CT36" s="49"/>
+      <c r="CU36" s="49"/>
+      <c r="CV36" s="50"/>
       <c r="DF36" s="46" t="s">
         <v>11</v>
       </c>
       <c r="DG36" s="33">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="DH36" s="54">
+      <c r="DH36" s="53">
         <v>0.95679999999999998</v>
       </c>
       <c r="DI36" s="33">
@@ -4809,30 +6240,30 @@
       <c r="DY36" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="DZ36" s="50"/>
-      <c r="EA36" s="50"/>
-      <c r="EB36" s="50"/>
-      <c r="EC36" s="50"/>
-      <c r="ED36" s="50"/>
-      <c r="EE36" s="51"/>
+      <c r="DZ36" s="49"/>
+      <c r="EA36" s="49"/>
+      <c r="EB36" s="49"/>
+      <c r="EC36" s="49"/>
+      <c r="ED36" s="49"/>
+      <c r="EE36" s="50"/>
       <c r="EP36" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="EQ36" s="50"/>
-      <c r="ER36" s="50"/>
-      <c r="ES36" s="50"/>
-      <c r="ET36" s="50"/>
-      <c r="EU36" s="50"/>
-      <c r="EV36" s="51"/>
+      <c r="EQ36" s="49"/>
+      <c r="ER36" s="49"/>
+      <c r="ES36" s="49"/>
+      <c r="ET36" s="49"/>
+      <c r="EU36" s="49"/>
+      <c r="EV36" s="50"/>
       <c r="FK36" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="FL36" s="50"/>
-      <c r="FM36" s="50"/>
-      <c r="FN36" s="50"/>
-      <c r="FO36" s="50"/>
-      <c r="FP36" s="50"/>
-      <c r="FQ36" s="51"/>
+      <c r="FL36" s="49"/>
+      <c r="FM36" s="49"/>
+      <c r="FN36" s="49"/>
+      <c r="FO36" s="49"/>
+      <c r="FP36" s="49"/>
+      <c r="FQ36" s="50"/>
     </row>
     <row r="37" spans="3:173" x14ac:dyDescent="0.25">
       <c r="C37" s="10">
@@ -4946,12 +6377,12 @@
       <c r="BU37" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="BV37" s="50"/>
-      <c r="BW37" s="50"/>
-      <c r="BX37" s="50"/>
-      <c r="BY37" s="50"/>
-      <c r="BZ37" s="50"/>
-      <c r="CA37" s="51"/>
+      <c r="BV37" s="49"/>
+      <c r="BW37" s="49"/>
+      <c r="BX37" s="49"/>
+      <c r="BY37" s="49"/>
+      <c r="BZ37" s="49"/>
+      <c r="CA37" s="50"/>
       <c r="CP37" s="46" t="s">
         <v>11</v>
       </c>
@@ -5000,7 +6431,7 @@
       <c r="DZ37" s="33">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="EA37" s="54">
+      <c r="EA37" s="53">
         <v>0.94540000000000002</v>
       </c>
       <c r="EB37" s="33">
@@ -5021,7 +6452,7 @@
       <c r="EQ37" s="33">
         <v>1E-4</v>
       </c>
-      <c r="ER37" s="54">
+      <c r="ER37" s="53">
         <v>0.8931</v>
       </c>
       <c r="ES37" s="33">
@@ -5494,12 +6925,12 @@
         <v>9.1000000000000004E-3</v>
       </c>
       <c r="DF39" s="46"/>
-      <c r="DG39" s="50"/>
-      <c r="DH39" s="50"/>
-      <c r="DI39" s="50"/>
-      <c r="DJ39" s="50"/>
-      <c r="DK39" s="50"/>
-      <c r="DL39" s="51"/>
+      <c r="DG39" s="49"/>
+      <c r="DH39" s="49"/>
+      <c r="DI39" s="49"/>
+      <c r="DJ39" s="49"/>
+      <c r="DK39" s="49"/>
+      <c r="DL39" s="50"/>
       <c r="DY39" s="46" t="s">
         <v>12</v>
       </c>
@@ -5719,40 +7150,40 @@
         <v>1.32E-2</v>
       </c>
       <c r="CP40" s="46"/>
-      <c r="CQ40" s="50"/>
-      <c r="CR40" s="50"/>
-      <c r="CS40" s="50"/>
-      <c r="CT40" s="50"/>
-      <c r="CU40" s="50"/>
-      <c r="CV40" s="51"/>
+      <c r="CQ40" s="49"/>
+      <c r="CR40" s="49"/>
+      <c r="CS40" s="49"/>
+      <c r="CT40" s="49"/>
+      <c r="CU40" s="49"/>
+      <c r="CV40" s="50"/>
       <c r="DF40" s="46"/>
-      <c r="DG40" s="50"/>
-      <c r="DH40" s="50"/>
-      <c r="DI40" s="50"/>
-      <c r="DJ40" s="50"/>
-      <c r="DK40" s="50"/>
-      <c r="DL40" s="51"/>
+      <c r="DG40" s="49"/>
+      <c r="DH40" s="49"/>
+      <c r="DI40" s="49"/>
+      <c r="DJ40" s="49"/>
+      <c r="DK40" s="49"/>
+      <c r="DL40" s="50"/>
       <c r="DY40" s="46"/>
-      <c r="DZ40" s="50"/>
-      <c r="EA40" s="50"/>
-      <c r="EB40" s="50"/>
-      <c r="EC40" s="50"/>
-      <c r="ED40" s="50"/>
-      <c r="EE40" s="51"/>
+      <c r="DZ40" s="49"/>
+      <c r="EA40" s="49"/>
+      <c r="EB40" s="49"/>
+      <c r="EC40" s="49"/>
+      <c r="ED40" s="49"/>
+      <c r="EE40" s="50"/>
       <c r="EP40" s="46"/>
-      <c r="EQ40" s="50"/>
-      <c r="ER40" s="50"/>
-      <c r="ES40" s="50"/>
-      <c r="ET40" s="50"/>
-      <c r="EU40" s="50"/>
-      <c r="EV40" s="51"/>
+      <c r="EQ40" s="49"/>
+      <c r="ER40" s="49"/>
+      <c r="ES40" s="49"/>
+      <c r="ET40" s="49"/>
+      <c r="EU40" s="49"/>
+      <c r="EV40" s="50"/>
       <c r="FK40" s="46"/>
-      <c r="FL40" s="50"/>
-      <c r="FM40" s="50"/>
-      <c r="FN40" s="50"/>
-      <c r="FO40" s="50"/>
-      <c r="FP40" s="50"/>
-      <c r="FQ40" s="51"/>
+      <c r="FL40" s="49"/>
+      <c r="FM40" s="49"/>
+      <c r="FN40" s="49"/>
+      <c r="FO40" s="49"/>
+      <c r="FP40" s="49"/>
+      <c r="FQ40" s="50"/>
     </row>
     <row r="41" spans="3:173" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C41" s="12">
@@ -5860,49 +7291,49 @@
       <c r="BI41" s="33"/>
       <c r="BJ41" s="24"/>
       <c r="BU41" s="46"/>
-      <c r="BV41" s="50"/>
-      <c r="BW41" s="50"/>
-      <c r="BX41" s="50"/>
-      <c r="BY41" s="50"/>
-      <c r="BZ41" s="50"/>
-      <c r="CA41" s="51"/>
+      <c r="BV41" s="49"/>
+      <c r="BW41" s="49"/>
+      <c r="BX41" s="49"/>
+      <c r="BY41" s="49"/>
+      <c r="BZ41" s="49"/>
+      <c r="CA41" s="50"/>
       <c r="CP41" s="46"/>
-      <c r="CQ41" s="50"/>
-      <c r="CR41" s="50"/>
-      <c r="CS41" s="50"/>
-      <c r="CT41" s="50"/>
-      <c r="CU41" s="50"/>
-      <c r="CV41" s="51"/>
+      <c r="CQ41" s="49"/>
+      <c r="CR41" s="49"/>
+      <c r="CS41" s="49"/>
+      <c r="CT41" s="49"/>
+      <c r="CU41" s="49"/>
+      <c r="CV41" s="50"/>
       <c r="DF41" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="DG41" s="50"/>
-      <c r="DH41" s="50"/>
-      <c r="DI41" s="50"/>
-      <c r="DJ41" s="50"/>
-      <c r="DK41" s="50"/>
-      <c r="DL41" s="51"/>
+      <c r="DG41" s="49"/>
+      <c r="DH41" s="49"/>
+      <c r="DI41" s="49"/>
+      <c r="DJ41" s="49"/>
+      <c r="DK41" s="49"/>
+      <c r="DL41" s="50"/>
       <c r="DY41" s="46"/>
-      <c r="DZ41" s="50"/>
-      <c r="EA41" s="50"/>
-      <c r="EB41" s="50"/>
-      <c r="EC41" s="50"/>
-      <c r="ED41" s="50"/>
-      <c r="EE41" s="51"/>
+      <c r="DZ41" s="49"/>
+      <c r="EA41" s="49"/>
+      <c r="EB41" s="49"/>
+      <c r="EC41" s="49"/>
+      <c r="ED41" s="49"/>
+      <c r="EE41" s="50"/>
       <c r="EP41" s="46"/>
-      <c r="EQ41" s="50"/>
-      <c r="ER41" s="50"/>
-      <c r="ES41" s="50"/>
-      <c r="ET41" s="50"/>
-      <c r="EU41" s="50"/>
-      <c r="EV41" s="51"/>
+      <c r="EQ41" s="49"/>
+      <c r="ER41" s="49"/>
+      <c r="ES41" s="49"/>
+      <c r="ET41" s="49"/>
+      <c r="EU41" s="49"/>
+      <c r="EV41" s="50"/>
       <c r="FK41" s="46"/>
-      <c r="FL41" s="50"/>
-      <c r="FM41" s="50"/>
-      <c r="FN41" s="50"/>
-      <c r="FO41" s="50"/>
-      <c r="FP41" s="50"/>
-      <c r="FQ41" s="51"/>
+      <c r="FL41" s="49"/>
+      <c r="FM41" s="49"/>
+      <c r="FN41" s="49"/>
+      <c r="FO41" s="49"/>
+      <c r="FP41" s="49"/>
+      <c r="FQ41" s="50"/>
     </row>
     <row r="42" spans="3:173" x14ac:dyDescent="0.25">
       <c r="AN42" s="46"/>
@@ -5920,21 +7351,21 @@
       <c r="BI42" s="33"/>
       <c r="BJ42" s="24"/>
       <c r="BU42" s="46"/>
-      <c r="BV42" s="50"/>
-      <c r="BW42" s="50"/>
-      <c r="BX42" s="50"/>
-      <c r="BY42" s="50"/>
-      <c r="BZ42" s="50"/>
-      <c r="CA42" s="51"/>
+      <c r="BV42" s="49"/>
+      <c r="BW42" s="49"/>
+      <c r="BX42" s="49"/>
+      <c r="BY42" s="49"/>
+      <c r="BZ42" s="49"/>
+      <c r="CA42" s="50"/>
       <c r="CP42" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="CQ42" s="50"/>
-      <c r="CR42" s="50"/>
-      <c r="CS42" s="50"/>
-      <c r="CT42" s="50"/>
-      <c r="CU42" s="50"/>
-      <c r="CV42" s="51"/>
+      <c r="CQ42" s="49"/>
+      <c r="CR42" s="49"/>
+      <c r="CS42" s="49"/>
+      <c r="CT42" s="49"/>
+      <c r="CU42" s="49"/>
+      <c r="CV42" s="50"/>
       <c r="DF42" s="46" t="s">
         <v>11</v>
       </c>
@@ -5944,7 +7375,7 @@
       <c r="DH42" s="33">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="DI42" s="54">
+      <c r="DI42" s="53">
         <v>0.96489999999999998</v>
       </c>
       <c r="DJ42" s="33">
@@ -5959,32 +7390,56 @@
       <c r="DY42" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="DZ42" s="50"/>
-      <c r="EA42" s="50"/>
-      <c r="EB42" s="50"/>
-      <c r="EC42" s="50"/>
-      <c r="ED42" s="50"/>
-      <c r="EE42" s="51"/>
+      <c r="DZ42" s="49"/>
+      <c r="EA42" s="49"/>
+      <c r="EB42" s="49"/>
+      <c r="EC42" s="49"/>
+      <c r="ED42" s="49"/>
+      <c r="EE42" s="50"/>
       <c r="EP42" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="EQ42" s="50"/>
-      <c r="ER42" s="50"/>
-      <c r="ES42" s="50"/>
-      <c r="ET42" s="50"/>
-      <c r="EU42" s="50"/>
-      <c r="EV42" s="51"/>
+      <c r="EQ42" s="49"/>
+      <c r="ER42" s="49"/>
+      <c r="ES42" s="49"/>
+      <c r="ET42" s="49"/>
+      <c r="EU42" s="49"/>
+      <c r="EV42" s="50"/>
       <c r="FK42" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="FL42" s="50"/>
-      <c r="FM42" s="50"/>
-      <c r="FN42" s="50"/>
-      <c r="FO42" s="50"/>
-      <c r="FP42" s="50"/>
-      <c r="FQ42" s="51"/>
+      <c r="FL42" s="49"/>
+      <c r="FM42" s="49"/>
+      <c r="FN42" s="49"/>
+      <c r="FO42" s="49"/>
+      <c r="FP42" s="49"/>
+      <c r="FQ42" s="50"/>
     </row>
     <row r="43" spans="3:173" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D43" s="65" t="s">
+        <v>82</v>
+      </c>
+      <c r="E43" s="65"/>
+      <c r="F43" s="65"/>
+      <c r="G43" s="65"/>
+      <c r="H43" s="65"/>
+      <c r="I43" s="65"/>
+      <c r="Q43" s="65" t="s">
+        <v>83</v>
+      </c>
+      <c r="R43" s="65"/>
+      <c r="S43" s="65"/>
+      <c r="T43" s="65"/>
+      <c r="U43" s="65"/>
+      <c r="V43" s="65"/>
+      <c r="AB43" s="65" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC43" s="65"/>
+      <c r="AD43" s="65"/>
+      <c r="AE43" s="65"/>
+      <c r="AF43" s="65"/>
+      <c r="AG43" s="65"/>
       <c r="AN43" s="46" t="s">
         <v>16</v>
       </c>
@@ -6006,12 +7461,12 @@
       <c r="BU43" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="BV43" s="50"/>
-      <c r="BW43" s="50"/>
-      <c r="BX43" s="50"/>
-      <c r="BY43" s="50"/>
-      <c r="BZ43" s="50"/>
-      <c r="CA43" s="51"/>
+      <c r="BV43" s="49"/>
+      <c r="BW43" s="49"/>
+      <c r="BX43" s="49"/>
+      <c r="BY43" s="49"/>
+      <c r="BZ43" s="49"/>
+      <c r="CA43" s="50"/>
       <c r="CP43" s="46" t="s">
         <v>11</v>
       </c>
@@ -6063,7 +7518,7 @@
       <c r="EA43" s="33">
         <v>3.9300000000000002E-2</v>
       </c>
-      <c r="EB43" s="54">
+      <c r="EB43" s="53">
         <v>0.96230000000000004</v>
       </c>
       <c r="EC43" s="33">
@@ -6084,7 +7539,7 @@
       <c r="ER43" s="33">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="ES43" s="54">
+      <c r="ES43" s="53">
         <v>0.88339999999999996</v>
       </c>
       <c r="ET43" s="33">
@@ -6554,12 +8009,12 @@
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="DF45" s="46"/>
-      <c r="DG45" s="50"/>
-      <c r="DH45" s="50"/>
-      <c r="DI45" s="50"/>
-      <c r="DJ45" s="50"/>
-      <c r="DK45" s="50"/>
-      <c r="DL45" s="51"/>
+      <c r="DG45" s="49"/>
+      <c r="DH45" s="49"/>
+      <c r="DI45" s="49"/>
+      <c r="DJ45" s="49"/>
+      <c r="DK45" s="49"/>
+      <c r="DL45" s="50"/>
       <c r="DY45" s="46" t="s">
         <v>12</v>
       </c>
@@ -6779,40 +8234,40 @@
         <v>4.4999999999999997E-3</v>
       </c>
       <c r="CP46" s="46"/>
-      <c r="CQ46" s="50"/>
-      <c r="CR46" s="50"/>
-      <c r="CS46" s="50"/>
-      <c r="CT46" s="50"/>
-      <c r="CU46" s="50"/>
-      <c r="CV46" s="51"/>
+      <c r="CQ46" s="49"/>
+      <c r="CR46" s="49"/>
+      <c r="CS46" s="49"/>
+      <c r="CT46" s="49"/>
+      <c r="CU46" s="49"/>
+      <c r="CV46" s="50"/>
       <c r="DF46" s="46"/>
-      <c r="DG46" s="50"/>
-      <c r="DH46" s="50"/>
-      <c r="DI46" s="50"/>
-      <c r="DJ46" s="50"/>
-      <c r="DK46" s="50"/>
-      <c r="DL46" s="51"/>
+      <c r="DG46" s="49"/>
+      <c r="DH46" s="49"/>
+      <c r="DI46" s="49"/>
+      <c r="DJ46" s="49"/>
+      <c r="DK46" s="49"/>
+      <c r="DL46" s="50"/>
       <c r="DY46" s="46"/>
-      <c r="DZ46" s="50"/>
-      <c r="EA46" s="50"/>
-      <c r="EB46" s="50"/>
-      <c r="EC46" s="50"/>
-      <c r="ED46" s="50"/>
-      <c r="EE46" s="51"/>
+      <c r="DZ46" s="49"/>
+      <c r="EA46" s="49"/>
+      <c r="EB46" s="49"/>
+      <c r="EC46" s="49"/>
+      <c r="ED46" s="49"/>
+      <c r="EE46" s="50"/>
       <c r="EP46" s="46"/>
-      <c r="EQ46" s="50"/>
-      <c r="ER46" s="50"/>
-      <c r="ES46" s="50"/>
-      <c r="ET46" s="50"/>
-      <c r="EU46" s="50"/>
-      <c r="EV46" s="51"/>
+      <c r="EQ46" s="49"/>
+      <c r="ER46" s="49"/>
+      <c r="ES46" s="49"/>
+      <c r="ET46" s="49"/>
+      <c r="EU46" s="49"/>
+      <c r="EV46" s="50"/>
       <c r="FK46" s="46"/>
-      <c r="FL46" s="50"/>
-      <c r="FM46" s="50"/>
-      <c r="FN46" s="50"/>
-      <c r="FO46" s="50"/>
-      <c r="FP46" s="50"/>
-      <c r="FQ46" s="51"/>
+      <c r="FL46" s="49"/>
+      <c r="FM46" s="49"/>
+      <c r="FN46" s="49"/>
+      <c r="FO46" s="49"/>
+      <c r="FP46" s="49"/>
+      <c r="FQ46" s="50"/>
     </row>
     <row r="47" spans="3:173" x14ac:dyDescent="0.25">
       <c r="C47" s="10">
@@ -6920,49 +8375,49 @@
       <c r="BI47" s="33"/>
       <c r="BJ47" s="24"/>
       <c r="BU47" s="46"/>
-      <c r="BV47" s="50"/>
-      <c r="BW47" s="50"/>
-      <c r="BX47" s="50"/>
-      <c r="BY47" s="50"/>
-      <c r="BZ47" s="50"/>
-      <c r="CA47" s="51"/>
+      <c r="BV47" s="49"/>
+      <c r="BW47" s="49"/>
+      <c r="BX47" s="49"/>
+      <c r="BY47" s="49"/>
+      <c r="BZ47" s="49"/>
+      <c r="CA47" s="50"/>
       <c r="CP47" s="46"/>
-      <c r="CQ47" s="50"/>
-      <c r="CR47" s="50"/>
-      <c r="CS47" s="50"/>
-      <c r="CT47" s="50"/>
-      <c r="CU47" s="50"/>
-      <c r="CV47" s="51"/>
+      <c r="CQ47" s="49"/>
+      <c r="CR47" s="49"/>
+      <c r="CS47" s="49"/>
+      <c r="CT47" s="49"/>
+      <c r="CU47" s="49"/>
+      <c r="CV47" s="50"/>
       <c r="DF47" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="DG47" s="50"/>
-      <c r="DH47" s="50"/>
-      <c r="DI47" s="50"/>
-      <c r="DJ47" s="50"/>
-      <c r="DK47" s="50"/>
-      <c r="DL47" s="51"/>
+      <c r="DG47" s="49"/>
+      <c r="DH47" s="49"/>
+      <c r="DI47" s="49"/>
+      <c r="DJ47" s="49"/>
+      <c r="DK47" s="49"/>
+      <c r="DL47" s="50"/>
       <c r="DY47" s="46"/>
-      <c r="DZ47" s="50"/>
-      <c r="EA47" s="50"/>
-      <c r="EB47" s="50"/>
-      <c r="EC47" s="50"/>
-      <c r="ED47" s="50"/>
-      <c r="EE47" s="51"/>
+      <c r="DZ47" s="49"/>
+      <c r="EA47" s="49"/>
+      <c r="EB47" s="49"/>
+      <c r="EC47" s="49"/>
+      <c r="ED47" s="49"/>
+      <c r="EE47" s="50"/>
       <c r="EP47" s="46"/>
-      <c r="EQ47" s="50"/>
-      <c r="ER47" s="50"/>
-      <c r="ES47" s="50"/>
-      <c r="ET47" s="50"/>
-      <c r="EU47" s="50"/>
-      <c r="EV47" s="51"/>
+      <c r="EQ47" s="49"/>
+      <c r="ER47" s="49"/>
+      <c r="ES47" s="49"/>
+      <c r="ET47" s="49"/>
+      <c r="EU47" s="49"/>
+      <c r="EV47" s="50"/>
       <c r="FK47" s="46"/>
-      <c r="FL47" s="50"/>
-      <c r="FM47" s="50"/>
-      <c r="FN47" s="50"/>
-      <c r="FO47" s="50"/>
-      <c r="FP47" s="50"/>
-      <c r="FQ47" s="51"/>
+      <c r="FL47" s="49"/>
+      <c r="FM47" s="49"/>
+      <c r="FN47" s="49"/>
+      <c r="FO47" s="49"/>
+      <c r="FP47" s="49"/>
+      <c r="FQ47" s="50"/>
     </row>
     <row r="48" spans="3:173" x14ac:dyDescent="0.25">
       <c r="C48" s="10">
@@ -7070,21 +8525,21 @@
       <c r="BI48" s="33"/>
       <c r="BJ48" s="24"/>
       <c r="BU48" s="46"/>
-      <c r="BV48" s="50"/>
-      <c r="BW48" s="50"/>
-      <c r="BX48" s="50"/>
-      <c r="BY48" s="50"/>
-      <c r="BZ48" s="50"/>
-      <c r="CA48" s="51"/>
+      <c r="BV48" s="49"/>
+      <c r="BW48" s="49"/>
+      <c r="BX48" s="49"/>
+      <c r="BY48" s="49"/>
+      <c r="BZ48" s="49"/>
+      <c r="CA48" s="50"/>
       <c r="CP48" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="CQ48" s="50"/>
-      <c r="CR48" s="50"/>
-      <c r="CS48" s="50"/>
-      <c r="CT48" s="50"/>
-      <c r="CU48" s="50"/>
-      <c r="CV48" s="51"/>
+      <c r="CQ48" s="49"/>
+      <c r="CR48" s="49"/>
+      <c r="CS48" s="49"/>
+      <c r="CT48" s="49"/>
+      <c r="CU48" s="49"/>
+      <c r="CV48" s="50"/>
       <c r="DF48" s="46" t="s">
         <v>11</v>
       </c>
@@ -7097,7 +8552,7 @@
       <c r="DI48" s="33">
         <v>0</v>
       </c>
-      <c r="DJ48" s="54">
+      <c r="DJ48" s="53">
         <v>0.97389999999999999</v>
       </c>
       <c r="DK48" s="33">
@@ -7109,30 +8564,30 @@
       <c r="DY48" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="DZ48" s="50"/>
-      <c r="EA48" s="50"/>
-      <c r="EB48" s="50"/>
-      <c r="EC48" s="50"/>
-      <c r="ED48" s="50"/>
-      <c r="EE48" s="51"/>
+      <c r="DZ48" s="49"/>
+      <c r="EA48" s="49"/>
+      <c r="EB48" s="49"/>
+      <c r="EC48" s="49"/>
+      <c r="ED48" s="49"/>
+      <c r="EE48" s="50"/>
       <c r="EP48" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="EQ48" s="50"/>
-      <c r="ER48" s="50"/>
-      <c r="ES48" s="50"/>
-      <c r="ET48" s="50"/>
-      <c r="EU48" s="50"/>
-      <c r="EV48" s="51"/>
+      <c r="EQ48" s="49"/>
+      <c r="ER48" s="49"/>
+      <c r="ES48" s="49"/>
+      <c r="ET48" s="49"/>
+      <c r="EU48" s="49"/>
+      <c r="EV48" s="50"/>
       <c r="FK48" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="FL48" s="50"/>
-      <c r="FM48" s="50"/>
-      <c r="FN48" s="50"/>
-      <c r="FO48" s="50"/>
-      <c r="FP48" s="50"/>
-      <c r="FQ48" s="51"/>
+      <c r="FL48" s="49"/>
+      <c r="FM48" s="49"/>
+      <c r="FN48" s="49"/>
+      <c r="FO48" s="49"/>
+      <c r="FP48" s="49"/>
+      <c r="FQ48" s="50"/>
     </row>
     <row r="49" spans="3:173" x14ac:dyDescent="0.25">
       <c r="C49" s="10">
@@ -7246,12 +8701,12 @@
       <c r="BU49" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="BV49" s="50"/>
-      <c r="BW49" s="50"/>
-      <c r="BX49" s="50"/>
-      <c r="BY49" s="50"/>
-      <c r="BZ49" s="50"/>
-      <c r="CA49" s="51"/>
+      <c r="BV49" s="49"/>
+      <c r="BW49" s="49"/>
+      <c r="BX49" s="49"/>
+      <c r="BY49" s="49"/>
+      <c r="BZ49" s="49"/>
+      <c r="CA49" s="50"/>
       <c r="CP49" s="46" t="s">
         <v>11</v>
       </c>
@@ -7306,7 +8761,7 @@
       <c r="EB49" s="33">
         <v>8.3000000000000001E-3</v>
       </c>
-      <c r="EC49" s="54">
+      <c r="EC49" s="53">
         <v>0.96799999999999997</v>
       </c>
       <c r="ED49" s="33">
@@ -7327,7 +8782,7 @@
       <c r="ES49" s="33">
         <v>1E-4</v>
       </c>
-      <c r="ET49" s="54">
+      <c r="ET49" s="53">
         <v>0.89390000000000003</v>
       </c>
       <c r="EU49" s="33">
@@ -7763,7 +9218,7 @@
       <c r="BX51" s="33">
         <v>0</v>
       </c>
-      <c r="BY51" s="50">
+      <c r="BY51" s="49">
         <v>1</v>
       </c>
       <c r="BZ51" s="33">
@@ -7794,12 +9249,12 @@
         <v>1.46E-2</v>
       </c>
       <c r="DF51" s="46"/>
-      <c r="DG51" s="50"/>
-      <c r="DH51" s="50"/>
-      <c r="DI51" s="50"/>
-      <c r="DJ51" s="50"/>
-      <c r="DK51" s="50"/>
-      <c r="DL51" s="51"/>
+      <c r="DG51" s="49"/>
+      <c r="DH51" s="49"/>
+      <c r="DI51" s="49"/>
+      <c r="DJ51" s="49"/>
+      <c r="DK51" s="49"/>
+      <c r="DL51" s="50"/>
       <c r="DY51" s="46" t="s">
         <v>12</v>
       </c>
@@ -8019,40 +9474,40 @@
         <v>2.3E-3</v>
       </c>
       <c r="CP52" s="46"/>
-      <c r="CQ52" s="50"/>
-      <c r="CR52" s="50"/>
-      <c r="CS52" s="50"/>
-      <c r="CT52" s="50"/>
-      <c r="CU52" s="50"/>
-      <c r="CV52" s="51"/>
+      <c r="CQ52" s="49"/>
+      <c r="CR52" s="49"/>
+      <c r="CS52" s="49"/>
+      <c r="CT52" s="49"/>
+      <c r="CU52" s="49"/>
+      <c r="CV52" s="50"/>
       <c r="DF52" s="46"/>
-      <c r="DG52" s="50"/>
-      <c r="DH52" s="50"/>
-      <c r="DI52" s="50"/>
-      <c r="DJ52" s="50"/>
-      <c r="DK52" s="50"/>
-      <c r="DL52" s="51"/>
+      <c r="DG52" s="49"/>
+      <c r="DH52" s="49"/>
+      <c r="DI52" s="49"/>
+      <c r="DJ52" s="49"/>
+      <c r="DK52" s="49"/>
+      <c r="DL52" s="50"/>
       <c r="DY52" s="46"/>
-      <c r="DZ52" s="50"/>
-      <c r="EA52" s="50"/>
-      <c r="EB52" s="50"/>
-      <c r="EC52" s="50"/>
-      <c r="ED52" s="50"/>
-      <c r="EE52" s="51"/>
+      <c r="DZ52" s="49"/>
+      <c r="EA52" s="49"/>
+      <c r="EB52" s="49"/>
+      <c r="EC52" s="49"/>
+      <c r="ED52" s="49"/>
+      <c r="EE52" s="50"/>
       <c r="EP52" s="46"/>
-      <c r="EQ52" s="50"/>
-      <c r="ER52" s="50"/>
-      <c r="ES52" s="50"/>
-      <c r="ET52" s="50"/>
-      <c r="EU52" s="50"/>
-      <c r="EV52" s="51"/>
+      <c r="EQ52" s="49"/>
+      <c r="ER52" s="49"/>
+      <c r="ES52" s="49"/>
+      <c r="ET52" s="49"/>
+      <c r="EU52" s="49"/>
+      <c r="EV52" s="50"/>
       <c r="FK52" s="46"/>
-      <c r="FL52" s="50"/>
-      <c r="FM52" s="50"/>
-      <c r="FN52" s="50"/>
-      <c r="FO52" s="50"/>
-      <c r="FP52" s="50"/>
-      <c r="FQ52" s="51"/>
+      <c r="FL52" s="49"/>
+      <c r="FM52" s="49"/>
+      <c r="FN52" s="49"/>
+      <c r="FO52" s="49"/>
+      <c r="FP52" s="49"/>
+      <c r="FQ52" s="50"/>
     </row>
     <row r="53" spans="3:173" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C53" s="12">
@@ -8160,49 +9615,49 @@
       <c r="BI53" s="33"/>
       <c r="BJ53" s="24"/>
       <c r="BU53" s="46"/>
-      <c r="BV53" s="50"/>
-      <c r="BW53" s="50"/>
-      <c r="BX53" s="50"/>
-      <c r="BY53" s="50"/>
-      <c r="BZ53" s="50"/>
-      <c r="CA53" s="51"/>
+      <c r="BV53" s="49"/>
+      <c r="BW53" s="49"/>
+      <c r="BX53" s="49"/>
+      <c r="BY53" s="49"/>
+      <c r="BZ53" s="49"/>
+      <c r="CA53" s="50"/>
       <c r="CP53" s="46"/>
-      <c r="CQ53" s="50"/>
-      <c r="CR53" s="50"/>
-      <c r="CS53" s="50"/>
-      <c r="CT53" s="50"/>
-      <c r="CU53" s="50"/>
-      <c r="CV53" s="51"/>
+      <c r="CQ53" s="49"/>
+      <c r="CR53" s="49"/>
+      <c r="CS53" s="49"/>
+      <c r="CT53" s="49"/>
+      <c r="CU53" s="49"/>
+      <c r="CV53" s="50"/>
       <c r="DF53" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="DG53" s="50"/>
-      <c r="DH53" s="50"/>
-      <c r="DI53" s="50"/>
-      <c r="DJ53" s="50"/>
-      <c r="DK53" s="50"/>
-      <c r="DL53" s="51"/>
+      <c r="DG53" s="49"/>
+      <c r="DH53" s="49"/>
+      <c r="DI53" s="49"/>
+      <c r="DJ53" s="49"/>
+      <c r="DK53" s="49"/>
+      <c r="DL53" s="50"/>
       <c r="DY53" s="46"/>
-      <c r="DZ53" s="50"/>
-      <c r="EA53" s="50"/>
-      <c r="EB53" s="50"/>
-      <c r="EC53" s="50"/>
-      <c r="ED53" s="50"/>
-      <c r="EE53" s="51"/>
+      <c r="DZ53" s="49"/>
+      <c r="EA53" s="49"/>
+      <c r="EB53" s="49"/>
+      <c r="EC53" s="49"/>
+      <c r="ED53" s="49"/>
+      <c r="EE53" s="50"/>
       <c r="EP53" s="46"/>
-      <c r="EQ53" s="50"/>
-      <c r="ER53" s="50"/>
-      <c r="ES53" s="50"/>
-      <c r="ET53" s="50"/>
-      <c r="EU53" s="50"/>
-      <c r="EV53" s="51"/>
+      <c r="EQ53" s="49"/>
+      <c r="ER53" s="49"/>
+      <c r="ES53" s="49"/>
+      <c r="ET53" s="49"/>
+      <c r="EU53" s="49"/>
+      <c r="EV53" s="50"/>
       <c r="FK53" s="46"/>
-      <c r="FL53" s="50"/>
-      <c r="FM53" s="50"/>
-      <c r="FN53" s="50"/>
-      <c r="FO53" s="50"/>
-      <c r="FP53" s="50"/>
-      <c r="FQ53" s="51"/>
+      <c r="FL53" s="49"/>
+      <c r="FM53" s="49"/>
+      <c r="FN53" s="49"/>
+      <c r="FO53" s="49"/>
+      <c r="FP53" s="49"/>
+      <c r="FQ53" s="50"/>
     </row>
     <row r="54" spans="3:173" x14ac:dyDescent="0.25">
       <c r="AN54" s="46"/>
@@ -8220,21 +9675,21 @@
       <c r="BI54" s="33"/>
       <c r="BJ54" s="24"/>
       <c r="BU54" s="46"/>
-      <c r="BV54" s="50"/>
-      <c r="BW54" s="50"/>
-      <c r="BX54" s="50"/>
-      <c r="BY54" s="50"/>
-      <c r="BZ54" s="50"/>
-      <c r="CA54" s="51"/>
+      <c r="BV54" s="49"/>
+      <c r="BW54" s="49"/>
+      <c r="BX54" s="49"/>
+      <c r="BY54" s="49"/>
+      <c r="BZ54" s="49"/>
+      <c r="CA54" s="50"/>
       <c r="CP54" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="CQ54" s="50"/>
-      <c r="CR54" s="50"/>
-      <c r="CS54" s="50"/>
-      <c r="CT54" s="50"/>
-      <c r="CU54" s="50"/>
-      <c r="CV54" s="51"/>
+      <c r="CQ54" s="49"/>
+      <c r="CR54" s="49"/>
+      <c r="CS54" s="49"/>
+      <c r="CT54" s="49"/>
+      <c r="CU54" s="49"/>
+      <c r="CV54" s="50"/>
       <c r="DF54" s="46" t="s">
         <v>11</v>
       </c>
@@ -8250,7 +9705,7 @@
       <c r="DJ54" s="33">
         <v>1.14E-2</v>
       </c>
-      <c r="DK54" s="54">
+      <c r="DK54" s="53">
         <v>0.9849</v>
       </c>
       <c r="DL54" s="24">
@@ -8259,30 +9714,30 @@
       <c r="DY54" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="DZ54" s="50"/>
-      <c r="EA54" s="50"/>
-      <c r="EB54" s="50"/>
-      <c r="EC54" s="50"/>
-      <c r="ED54" s="50"/>
-      <c r="EE54" s="51"/>
+      <c r="DZ54" s="49"/>
+      <c r="EA54" s="49"/>
+      <c r="EB54" s="49"/>
+      <c r="EC54" s="49"/>
+      <c r="ED54" s="49"/>
+      <c r="EE54" s="50"/>
       <c r="EP54" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="EQ54" s="50"/>
-      <c r="ER54" s="50"/>
-      <c r="ES54" s="50"/>
-      <c r="ET54" s="50"/>
-      <c r="EU54" s="50"/>
-      <c r="EV54" s="51"/>
+      <c r="EQ54" s="49"/>
+      <c r="ER54" s="49"/>
+      <c r="ES54" s="49"/>
+      <c r="ET54" s="49"/>
+      <c r="EU54" s="49"/>
+      <c r="EV54" s="50"/>
       <c r="FK54" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="FL54" s="50"/>
-      <c r="FM54" s="50"/>
-      <c r="FN54" s="50"/>
-      <c r="FO54" s="50"/>
-      <c r="FP54" s="50"/>
-      <c r="FQ54" s="51"/>
+      <c r="FL54" s="49"/>
+      <c r="FM54" s="49"/>
+      <c r="FN54" s="49"/>
+      <c r="FO54" s="49"/>
+      <c r="FP54" s="49"/>
+      <c r="FQ54" s="50"/>
     </row>
     <row r="55" spans="3:173" x14ac:dyDescent="0.25">
       <c r="AN55" s="46" t="s">
@@ -8306,12 +9761,12 @@
       <c r="BU55" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="BV55" s="50"/>
-      <c r="BW55" s="50"/>
-      <c r="BX55" s="50"/>
-      <c r="BY55" s="50"/>
-      <c r="BZ55" s="50"/>
-      <c r="CA55" s="51"/>
+      <c r="BV55" s="49"/>
+      <c r="BW55" s="49"/>
+      <c r="BX55" s="49"/>
+      <c r="BY55" s="49"/>
+      <c r="BZ55" s="49"/>
+      <c r="CA55" s="50"/>
       <c r="CP55" s="46" t="s">
         <v>11</v>
       </c>
@@ -8369,7 +9824,7 @@
       <c r="EC55" s="33">
         <v>1.61E-2</v>
       </c>
-      <c r="ED55" s="54">
+      <c r="ED55" s="53">
         <v>0.97430000000000005</v>
       </c>
       <c r="EE55" s="24">
@@ -8390,7 +9845,7 @@
       <c r="ET55" s="33">
         <v>5.7799999999999997E-2</v>
       </c>
-      <c r="EU55" s="54">
+      <c r="EU55" s="53">
         <v>0.92779999999999996</v>
       </c>
       <c r="EV55" s="24">
@@ -8674,12 +10129,12 @@
         <v>4.8999999999999998E-3</v>
       </c>
       <c r="DF57" s="46"/>
-      <c r="DG57" s="50"/>
-      <c r="DH57" s="50"/>
-      <c r="DI57" s="50"/>
-      <c r="DJ57" s="50"/>
-      <c r="DK57" s="50"/>
-      <c r="DL57" s="51"/>
+      <c r="DG57" s="49"/>
+      <c r="DH57" s="49"/>
+      <c r="DI57" s="49"/>
+      <c r="DJ57" s="49"/>
+      <c r="DK57" s="49"/>
+      <c r="DL57" s="50"/>
       <c r="DY57" s="46" t="s">
         <v>12</v>
       </c>
@@ -8809,40 +10264,40 @@
         <v>1.06E-2</v>
       </c>
       <c r="CP58" s="46"/>
-      <c r="CQ58" s="50"/>
-      <c r="CR58" s="50"/>
-      <c r="CS58" s="50"/>
-      <c r="CT58" s="50"/>
-      <c r="CU58" s="50"/>
-      <c r="CV58" s="51"/>
+      <c r="CQ58" s="49"/>
+      <c r="CR58" s="49"/>
+      <c r="CS58" s="49"/>
+      <c r="CT58" s="49"/>
+      <c r="CU58" s="49"/>
+      <c r="CV58" s="50"/>
       <c r="DF58" s="46"/>
-      <c r="DG58" s="50"/>
-      <c r="DH58" s="50"/>
-      <c r="DI58" s="50"/>
-      <c r="DJ58" s="50"/>
-      <c r="DK58" s="50"/>
-      <c r="DL58" s="51"/>
+      <c r="DG58" s="49"/>
+      <c r="DH58" s="49"/>
+      <c r="DI58" s="49"/>
+      <c r="DJ58" s="49"/>
+      <c r="DK58" s="49"/>
+      <c r="DL58" s="50"/>
       <c r="DY58" s="46"/>
-      <c r="DZ58" s="50"/>
-      <c r="EA58" s="50"/>
-      <c r="EB58" s="50"/>
-      <c r="EC58" s="50"/>
-      <c r="ED58" s="50"/>
-      <c r="EE58" s="51"/>
+      <c r="DZ58" s="49"/>
+      <c r="EA58" s="49"/>
+      <c r="EB58" s="49"/>
+      <c r="EC58" s="49"/>
+      <c r="ED58" s="49"/>
+      <c r="EE58" s="50"/>
       <c r="EP58" s="46"/>
-      <c r="EQ58" s="50"/>
-      <c r="ER58" s="50"/>
-      <c r="ES58" s="50"/>
-      <c r="ET58" s="50"/>
-      <c r="EU58" s="50"/>
-      <c r="EV58" s="51"/>
+      <c r="EQ58" s="49"/>
+      <c r="ER58" s="49"/>
+      <c r="ES58" s="49"/>
+      <c r="ET58" s="49"/>
+      <c r="EU58" s="49"/>
+      <c r="EV58" s="50"/>
       <c r="FK58" s="46"/>
-      <c r="FL58" s="50"/>
-      <c r="FM58" s="50"/>
-      <c r="FN58" s="50"/>
-      <c r="FO58" s="50"/>
-      <c r="FP58" s="50"/>
-      <c r="FQ58" s="51"/>
+      <c r="FL58" s="49"/>
+      <c r="FM58" s="49"/>
+      <c r="FN58" s="49"/>
+      <c r="FO58" s="49"/>
+      <c r="FP58" s="49"/>
+      <c r="FQ58" s="50"/>
     </row>
     <row r="59" spans="3:173" x14ac:dyDescent="0.25">
       <c r="AN59" s="46"/>
@@ -8860,49 +10315,49 @@
       <c r="BI59" s="33"/>
       <c r="BJ59" s="24"/>
       <c r="BU59" s="46"/>
-      <c r="BV59" s="50"/>
-      <c r="BW59" s="50"/>
-      <c r="BX59" s="50"/>
-      <c r="BY59" s="50"/>
-      <c r="BZ59" s="50"/>
-      <c r="CA59" s="51"/>
+      <c r="BV59" s="49"/>
+      <c r="BW59" s="49"/>
+      <c r="BX59" s="49"/>
+      <c r="BY59" s="49"/>
+      <c r="BZ59" s="49"/>
+      <c r="CA59" s="50"/>
       <c r="CP59" s="46"/>
-      <c r="CQ59" s="50"/>
-      <c r="CR59" s="50"/>
-      <c r="CS59" s="50"/>
-      <c r="CT59" s="50"/>
-      <c r="CU59" s="50"/>
-      <c r="CV59" s="51"/>
+      <c r="CQ59" s="49"/>
+      <c r="CR59" s="49"/>
+      <c r="CS59" s="49"/>
+      <c r="CT59" s="49"/>
+      <c r="CU59" s="49"/>
+      <c r="CV59" s="50"/>
       <c r="DF59" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="DG59" s="50"/>
-      <c r="DH59" s="50"/>
-      <c r="DI59" s="50"/>
-      <c r="DJ59" s="50"/>
-      <c r="DK59" s="50"/>
-      <c r="DL59" s="51"/>
+      <c r="DG59" s="49"/>
+      <c r="DH59" s="49"/>
+      <c r="DI59" s="49"/>
+      <c r="DJ59" s="49"/>
+      <c r="DK59" s="49"/>
+      <c r="DL59" s="50"/>
       <c r="DY59" s="46"/>
-      <c r="DZ59" s="50"/>
-      <c r="EA59" s="50"/>
-      <c r="EB59" s="50"/>
-      <c r="EC59" s="50"/>
-      <c r="ED59" s="50"/>
-      <c r="EE59" s="51"/>
+      <c r="DZ59" s="49"/>
+      <c r="EA59" s="49"/>
+      <c r="EB59" s="49"/>
+      <c r="EC59" s="49"/>
+      <c r="ED59" s="49"/>
+      <c r="EE59" s="50"/>
       <c r="EP59" s="46"/>
-      <c r="EQ59" s="50"/>
-      <c r="ER59" s="50"/>
-      <c r="ES59" s="50"/>
-      <c r="ET59" s="50"/>
-      <c r="EU59" s="50"/>
-      <c r="EV59" s="51"/>
+      <c r="EQ59" s="49"/>
+      <c r="ER59" s="49"/>
+      <c r="ES59" s="49"/>
+      <c r="ET59" s="49"/>
+      <c r="EU59" s="49"/>
+      <c r="EV59" s="50"/>
       <c r="FK59" s="46"/>
-      <c r="FL59" s="50"/>
-      <c r="FM59" s="50"/>
-      <c r="FN59" s="50"/>
-      <c r="FO59" s="50"/>
-      <c r="FP59" s="50"/>
-      <c r="FQ59" s="51"/>
+      <c r="FL59" s="49"/>
+      <c r="FM59" s="49"/>
+      <c r="FN59" s="49"/>
+      <c r="FO59" s="49"/>
+      <c r="FP59" s="49"/>
+      <c r="FQ59" s="50"/>
     </row>
     <row r="60" spans="3:173" x14ac:dyDescent="0.25">
       <c r="AN60" s="46"/>
@@ -8920,21 +10375,21 @@
       <c r="BI60" s="33"/>
       <c r="BJ60" s="24"/>
       <c r="BU60" s="46"/>
-      <c r="BV60" s="50"/>
-      <c r="BW60" s="50"/>
-      <c r="BX60" s="50"/>
-      <c r="BY60" s="50"/>
-      <c r="BZ60" s="50"/>
-      <c r="CA60" s="51"/>
+      <c r="BV60" s="49"/>
+      <c r="BW60" s="49"/>
+      <c r="BX60" s="49"/>
+      <c r="BY60" s="49"/>
+      <c r="BZ60" s="49"/>
+      <c r="CA60" s="50"/>
       <c r="CP60" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="CQ60" s="50"/>
-      <c r="CR60" s="50"/>
-      <c r="CS60" s="50"/>
-      <c r="CT60" s="50"/>
-      <c r="CU60" s="50"/>
-      <c r="CV60" s="51"/>
+      <c r="CQ60" s="49"/>
+      <c r="CR60" s="49"/>
+      <c r="CS60" s="49"/>
+      <c r="CT60" s="49"/>
+      <c r="CU60" s="49"/>
+      <c r="CV60" s="50"/>
       <c r="DF60" s="46" t="s">
         <v>11</v>
       </c>
@@ -8953,36 +10408,36 @@
       <c r="DK60" s="33">
         <v>0</v>
       </c>
-      <c r="DL60" s="60">
+      <c r="DL60" s="57">
         <v>0.96379999999999999</v>
       </c>
       <c r="DY60" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="DZ60" s="50"/>
-      <c r="EA60" s="50"/>
-      <c r="EB60" s="50"/>
-      <c r="EC60" s="50"/>
-      <c r="ED60" s="50"/>
-      <c r="EE60" s="51"/>
+      <c r="DZ60" s="49"/>
+      <c r="EA60" s="49"/>
+      <c r="EB60" s="49"/>
+      <c r="EC60" s="49"/>
+      <c r="ED60" s="49"/>
+      <c r="EE60" s="50"/>
       <c r="EP60" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="EQ60" s="50"/>
-      <c r="ER60" s="50"/>
-      <c r="ES60" s="50"/>
-      <c r="ET60" s="50"/>
-      <c r="EU60" s="50"/>
-      <c r="EV60" s="51"/>
+      <c r="EQ60" s="49"/>
+      <c r="ER60" s="49"/>
+      <c r="ES60" s="49"/>
+      <c r="ET60" s="49"/>
+      <c r="EU60" s="49"/>
+      <c r="EV60" s="50"/>
       <c r="FK60" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="FL60" s="50"/>
-      <c r="FM60" s="50"/>
-      <c r="FN60" s="50"/>
-      <c r="FO60" s="50"/>
-      <c r="FP60" s="50"/>
-      <c r="FQ60" s="51"/>
+      <c r="FL60" s="49"/>
+      <c r="FM60" s="49"/>
+      <c r="FN60" s="49"/>
+      <c r="FO60" s="49"/>
+      <c r="FP60" s="49"/>
+      <c r="FQ60" s="50"/>
     </row>
     <row r="61" spans="3:173" x14ac:dyDescent="0.25">
       <c r="AN61" s="46" t="s">
@@ -9006,12 +10461,12 @@
       <c r="BU61" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="BV61" s="50"/>
-      <c r="BW61" s="50"/>
-      <c r="BX61" s="50"/>
-      <c r="BY61" s="50"/>
-      <c r="BZ61" s="50"/>
-      <c r="CA61" s="51"/>
+      <c r="BV61" s="49"/>
+      <c r="BW61" s="49"/>
+      <c r="BX61" s="49"/>
+      <c r="BY61" s="49"/>
+      <c r="BZ61" s="49"/>
+      <c r="CA61" s="50"/>
       <c r="CP61" s="46" t="s">
         <v>11</v>
       </c>
@@ -9072,7 +10527,7 @@
       <c r="ED61" s="33">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="EE61" s="60">
+      <c r="EE61" s="57">
         <v>0.98170000000000002</v>
       </c>
       <c r="EP61" s="46" t="s">
@@ -9093,7 +10548,7 @@
       <c r="EU61" s="33">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="EV61" s="60">
+      <c r="EV61" s="57">
         <v>0.8831</v>
       </c>
       <c r="FK61" s="46" t="s">
@@ -9578,57 +11033,114 @@
       <c r="BX67" s="19"/>
     </row>
     <row r="68" spans="39:173" x14ac:dyDescent="0.25">
-      <c r="BV68" s="52"/>
-      <c r="BW68" s="52"/>
-      <c r="BX68" s="52"/>
+      <c r="BV68" s="51"/>
+      <c r="BW68" s="51"/>
+      <c r="BX68" s="51"/>
     </row>
-    <row r="72" spans="39:173" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="72" spans="39:173" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DG72" s="65" t="s">
+        <v>74</v>
+      </c>
+      <c r="DH72" s="65"/>
+    </row>
     <row r="73" spans="39:173" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="CO73" t="s">
         <v>47</v>
       </c>
+      <c r="CQ73" s="65" t="s">
+        <v>74</v>
+      </c>
+      <c r="CR73" s="65"/>
       <c r="DE73" t="s">
         <v>48</v>
       </c>
       <c r="DF73" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="DG73" s="58"/>
-      <c r="DH73" s="58"/>
-      <c r="DI73" s="58"/>
-      <c r="DJ73" s="58"/>
-      <c r="DK73" s="58"/>
-      <c r="DL73" s="59"/>
+        <v>68</v>
+      </c>
+      <c r="DG73" s="66">
+        <v>1</v>
+      </c>
+      <c r="DH73" s="66">
+        <v>2</v>
+      </c>
+      <c r="DI73" s="66">
+        <v>3</v>
+      </c>
+      <c r="DJ73" s="66">
+        <v>4</v>
+      </c>
+      <c r="DK73" s="66">
+        <v>5</v>
+      </c>
+      <c r="DL73" s="67">
+        <v>6</v>
+      </c>
+      <c r="DZ73" s="65" t="s">
+        <v>74</v>
+      </c>
+      <c r="EA73" s="65"/>
+      <c r="EQ73" s="65" t="s">
+        <v>74</v>
+      </c>
+      <c r="ER73" s="65"/>
+      <c r="FL73" s="65" t="s">
+        <v>74</v>
+      </c>
+      <c r="FM73" s="65"/>
     </row>
     <row r="74" spans="39:173" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AM74" t="s">
         <v>5</v>
       </c>
+      <c r="AO74" s="65" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP74" s="65"/>
       <c r="BC74" t="s">
         <v>26</v>
       </c>
+      <c r="BE74" s="65" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF74" s="65"/>
       <c r="BT74" t="s">
         <v>46</v>
       </c>
+      <c r="BV74" s="65" t="s">
+        <v>74</v>
+      </c>
+      <c r="BW74" s="65"/>
       <c r="CO74" t="s">
         <v>31</v>
       </c>
       <c r="CP74" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="CQ74" s="58"/>
-      <c r="CR74" s="58"/>
-      <c r="CS74" s="58"/>
-      <c r="CT74" s="58"/>
-      <c r="CU74" s="58"/>
-      <c r="CV74" s="59"/>
+        <v>68</v>
+      </c>
+      <c r="CQ74" s="66">
+        <v>1</v>
+      </c>
+      <c r="CR74" s="66">
+        <v>2</v>
+      </c>
+      <c r="CS74" s="66">
+        <v>3</v>
+      </c>
+      <c r="CT74" s="66">
+        <v>4</v>
+      </c>
+      <c r="CU74" s="66">
+        <v>5</v>
+      </c>
+      <c r="CV74" s="67">
+        <v>6</v>
+      </c>
       <c r="DE74" t="s">
         <v>31</v>
       </c>
       <c r="DF74" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="DG74" s="64">
+      <c r="DG74" s="60">
         <v>3.3E-3</v>
       </c>
       <c r="DH74" s="33">
@@ -9640,7 +11152,7 @@
       <c r="DJ74" s="33">
         <v>7.1000000000000004E-3</v>
       </c>
-      <c r="DK74" s="62">
+      <c r="DK74" s="58">
         <v>0.97860000000000003</v>
       </c>
       <c r="DL74" s="24">
@@ -9653,76 +11165,148 @@
         <v>53</v>
       </c>
       <c r="DY74" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="DZ74" s="58"/>
-      <c r="EA74" s="58"/>
-      <c r="EB74" s="58"/>
-      <c r="EC74" s="58"/>
-      <c r="ED74" s="58"/>
-      <c r="EE74" s="59"/>
+        <v>68</v>
+      </c>
+      <c r="DZ74" s="66">
+        <v>1</v>
+      </c>
+      <c r="EA74" s="66">
+        <v>2</v>
+      </c>
+      <c r="EB74" s="66">
+        <v>3</v>
+      </c>
+      <c r="EC74" s="66">
+        <v>4</v>
+      </c>
+      <c r="ED74" s="66">
+        <v>5</v>
+      </c>
+      <c r="EE74" s="67">
+        <v>6</v>
+      </c>
       <c r="EO74" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="EP74" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="EQ74" s="58"/>
-      <c r="ER74" s="58"/>
-      <c r="ES74" s="58"/>
-      <c r="ET74" s="58"/>
-      <c r="EU74" s="58"/>
-      <c r="EV74" s="59"/>
+        <v>68</v>
+      </c>
+      <c r="EQ74" s="66">
+        <v>1</v>
+      </c>
+      <c r="ER74" s="66">
+        <v>2</v>
+      </c>
+      <c r="ES74" s="66">
+        <v>3</v>
+      </c>
+      <c r="ET74" s="66">
+        <v>4</v>
+      </c>
+      <c r="EU74" s="66">
+        <v>5</v>
+      </c>
+      <c r="EV74" s="67">
+        <v>6</v>
+      </c>
       <c r="FJ74" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="FK74" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="FL74" s="58"/>
-      <c r="FM74" s="58"/>
-      <c r="FN74" s="58"/>
-      <c r="FO74" s="58"/>
-      <c r="FP74" s="58"/>
-      <c r="FQ74" s="59"/>
+        <v>68</v>
+      </c>
+      <c r="FL74" s="66">
+        <v>1</v>
+      </c>
+      <c r="FM74" s="66">
+        <v>2</v>
+      </c>
+      <c r="FN74" s="66">
+        <v>3</v>
+      </c>
+      <c r="FO74" s="66">
+        <v>4</v>
+      </c>
+      <c r="FP74" s="66">
+        <v>5</v>
+      </c>
+      <c r="FQ74" s="67">
+        <v>6</v>
+      </c>
     </row>
     <row r="75" spans="39:173" x14ac:dyDescent="0.25">
       <c r="AM75" t="s">
         <v>31</v>
       </c>
       <c r="AN75" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="AO75" s="32"/>
-      <c r="AP75" s="32"/>
-      <c r="AQ75" s="32"/>
-      <c r="AR75" s="32"/>
-      <c r="AS75" s="32"/>
-      <c r="AT75" s="22"/>
+        <v>68</v>
+      </c>
+      <c r="AO75" s="66">
+        <v>1</v>
+      </c>
+      <c r="AP75" s="66">
+        <v>2</v>
+      </c>
+      <c r="AQ75" s="66">
+        <v>3</v>
+      </c>
+      <c r="AR75" s="66">
+        <v>4</v>
+      </c>
+      <c r="AS75" s="66">
+        <v>5</v>
+      </c>
+      <c r="AT75" s="67">
+        <v>6</v>
+      </c>
       <c r="BC75" t="s">
         <v>31</v>
       </c>
       <c r="BD75" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="BE75" s="32"/>
-      <c r="BF75" s="32"/>
-      <c r="BG75" s="32"/>
-      <c r="BH75" s="32"/>
-      <c r="BI75" s="32"/>
-      <c r="BJ75" s="22"/>
+        <v>68</v>
+      </c>
+      <c r="BE75" s="66">
+        <v>1</v>
+      </c>
+      <c r="BF75" s="66">
+        <v>2</v>
+      </c>
+      <c r="BG75" s="66">
+        <v>3</v>
+      </c>
+      <c r="BH75" s="66">
+        <v>4</v>
+      </c>
+      <c r="BI75" s="66">
+        <v>5</v>
+      </c>
+      <c r="BJ75" s="67">
+        <v>6</v>
+      </c>
       <c r="BT75" t="s">
         <v>31</v>
       </c>
       <c r="BU75" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="BV75" s="32"/>
-      <c r="BW75" s="32"/>
-      <c r="BX75" s="32"/>
-      <c r="BY75" s="32"/>
-      <c r="BZ75" s="32"/>
-      <c r="CA75" s="22"/>
+        <v>68</v>
+      </c>
+      <c r="BV75" s="66">
+        <v>1</v>
+      </c>
+      <c r="BW75" s="66">
+        <v>2</v>
+      </c>
+      <c r="BX75" s="66">
+        <v>3</v>
+      </c>
+      <c r="BY75" s="66">
+        <v>4</v>
+      </c>
+      <c r="BZ75" s="66">
+        <v>5</v>
+      </c>
+      <c r="CA75" s="67">
+        <v>6</v>
+      </c>
       <c r="CP75" s="46" t="s">
         <v>11</v>
       </c>
@@ -9801,7 +11385,7 @@
       <c r="EP75" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="EQ75" s="54">
+      <c r="EQ75" s="53">
         <v>0.91059999999999997</v>
       </c>
       <c r="ER75" s="33">
@@ -9828,7 +11412,7 @@
       <c r="FK75" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="FL75" s="54">
+      <c r="FL75" s="53">
         <v>0.81820000000000004</v>
       </c>
       <c r="FM75" s="33">
@@ -9899,7 +11483,7 @@
       <c r="BU76" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="BV76" s="53">
+      <c r="BV76" s="52">
         <v>9.3299999999999994E-2</v>
       </c>
       <c r="BW76" s="33">
@@ -10112,12 +11696,12 @@
         <v>6.9999999999999999E-4</v>
       </c>
       <c r="DF77" s="46"/>
-      <c r="DG77" s="50"/>
-      <c r="DH77" s="50"/>
-      <c r="DI77" s="50"/>
-      <c r="DJ77" s="50"/>
-      <c r="DK77" s="50"/>
-      <c r="DL77" s="51"/>
+      <c r="DG77" s="49"/>
+      <c r="DH77" s="49"/>
+      <c r="DI77" s="49"/>
+      <c r="DJ77" s="49"/>
+      <c r="DK77" s="49"/>
+      <c r="DL77" s="50"/>
       <c r="DY77" s="46" t="s">
         <v>12</v>
       </c>
@@ -10247,40 +11831,40 @@
         <v>2.3E-3</v>
       </c>
       <c r="CP78" s="46"/>
-      <c r="CQ78" s="50"/>
-      <c r="CR78" s="50"/>
-      <c r="CS78" s="50"/>
-      <c r="CT78" s="50"/>
-      <c r="CU78" s="50"/>
-      <c r="CV78" s="51"/>
+      <c r="CQ78" s="49"/>
+      <c r="CR78" s="49"/>
+      <c r="CS78" s="49"/>
+      <c r="CT78" s="49"/>
+      <c r="CU78" s="49"/>
+      <c r="CV78" s="50"/>
       <c r="DF78" s="46"/>
-      <c r="DG78" s="50"/>
-      <c r="DH78" s="50"/>
-      <c r="DI78" s="50"/>
-      <c r="DJ78" s="50"/>
-      <c r="DK78" s="50"/>
-      <c r="DL78" s="51"/>
+      <c r="DG78" s="49"/>
+      <c r="DH78" s="49"/>
+      <c r="DI78" s="49"/>
+      <c r="DJ78" s="49"/>
+      <c r="DK78" s="49"/>
+      <c r="DL78" s="50"/>
       <c r="DY78" s="46"/>
-      <c r="DZ78" s="50"/>
-      <c r="EA78" s="50"/>
-      <c r="EB78" s="50"/>
-      <c r="EC78" s="50"/>
-      <c r="ED78" s="50"/>
-      <c r="EE78" s="51"/>
+      <c r="DZ78" s="49"/>
+      <c r="EA78" s="49"/>
+      <c r="EB78" s="49"/>
+      <c r="EC78" s="49"/>
+      <c r="ED78" s="49"/>
+      <c r="EE78" s="50"/>
       <c r="EP78" s="46"/>
-      <c r="EQ78" s="50"/>
-      <c r="ER78" s="50"/>
-      <c r="ES78" s="50"/>
-      <c r="ET78" s="50"/>
-      <c r="EU78" s="50"/>
-      <c r="EV78" s="51"/>
+      <c r="EQ78" s="49"/>
+      <c r="ER78" s="49"/>
+      <c r="ES78" s="49"/>
+      <c r="ET78" s="49"/>
+      <c r="EU78" s="49"/>
+      <c r="EV78" s="50"/>
       <c r="FK78" s="46"/>
-      <c r="FL78" s="50"/>
-      <c r="FM78" s="50"/>
-      <c r="FN78" s="50"/>
-      <c r="FO78" s="50"/>
-      <c r="FP78" s="50"/>
-      <c r="FQ78" s="51"/>
+      <c r="FL78" s="49"/>
+      <c r="FM78" s="49"/>
+      <c r="FN78" s="49"/>
+      <c r="FO78" s="49"/>
+      <c r="FP78" s="49"/>
+      <c r="FQ78" s="50"/>
     </row>
     <row r="79" spans="39:173" x14ac:dyDescent="0.25">
       <c r="AN79" s="46"/>
@@ -10298,49 +11882,49 @@
       <c r="BI79" s="33"/>
       <c r="BJ79" s="24"/>
       <c r="BU79" s="46"/>
-      <c r="BV79" s="50"/>
-      <c r="BW79" s="50"/>
-      <c r="BX79" s="50"/>
-      <c r="BY79" s="50"/>
-      <c r="BZ79" s="50"/>
-      <c r="CA79" s="51"/>
+      <c r="BV79" s="49"/>
+      <c r="BW79" s="49"/>
+      <c r="BX79" s="49"/>
+      <c r="BY79" s="49"/>
+      <c r="BZ79" s="49"/>
+      <c r="CA79" s="50"/>
       <c r="CP79" s="46"/>
-      <c r="CQ79" s="50"/>
-      <c r="CR79" s="50"/>
-      <c r="CS79" s="50"/>
-      <c r="CT79" s="50"/>
-      <c r="CU79" s="50"/>
-      <c r="CV79" s="51"/>
+      <c r="CQ79" s="49"/>
+      <c r="CR79" s="49"/>
+      <c r="CS79" s="49"/>
+      <c r="CT79" s="49"/>
+      <c r="CU79" s="49"/>
+      <c r="CV79" s="50"/>
       <c r="DF79" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="DG79" s="50"/>
-      <c r="DH79" s="50"/>
-      <c r="DI79" s="50"/>
-      <c r="DJ79" s="50"/>
-      <c r="DK79" s="50"/>
-      <c r="DL79" s="51"/>
+        <v>69</v>
+      </c>
+      <c r="DG79" s="49"/>
+      <c r="DH79" s="49"/>
+      <c r="DI79" s="49"/>
+      <c r="DJ79" s="49"/>
+      <c r="DK79" s="49"/>
+      <c r="DL79" s="50"/>
       <c r="DY79" s="46"/>
-      <c r="DZ79" s="50"/>
-      <c r="EA79" s="50"/>
-      <c r="EB79" s="50"/>
-      <c r="EC79" s="50"/>
-      <c r="ED79" s="50"/>
-      <c r="EE79" s="51"/>
+      <c r="DZ79" s="49"/>
+      <c r="EA79" s="49"/>
+      <c r="EB79" s="49"/>
+      <c r="EC79" s="49"/>
+      <c r="ED79" s="49"/>
+      <c r="EE79" s="50"/>
       <c r="EP79" s="46"/>
-      <c r="EQ79" s="50"/>
-      <c r="ER79" s="50"/>
-      <c r="ES79" s="50"/>
-      <c r="ET79" s="50"/>
-      <c r="EU79" s="50"/>
-      <c r="EV79" s="51"/>
+      <c r="EQ79" s="49"/>
+      <c r="ER79" s="49"/>
+      <c r="ES79" s="49"/>
+      <c r="ET79" s="49"/>
+      <c r="EU79" s="49"/>
+      <c r="EV79" s="50"/>
       <c r="FK79" s="46"/>
-      <c r="FL79" s="50"/>
-      <c r="FM79" s="50"/>
-      <c r="FN79" s="50"/>
-      <c r="FO79" s="50"/>
-      <c r="FP79" s="50"/>
-      <c r="FQ79" s="51"/>
+      <c r="FL79" s="49"/>
+      <c r="FM79" s="49"/>
+      <c r="FN79" s="49"/>
+      <c r="FO79" s="49"/>
+      <c r="FP79" s="49"/>
+      <c r="FQ79" s="50"/>
     </row>
     <row r="80" spans="39:173" x14ac:dyDescent="0.25">
       <c r="AN80" s="46"/>
@@ -10358,28 +11942,28 @@
       <c r="BI80" s="33"/>
       <c r="BJ80" s="24"/>
       <c r="BU80" s="46"/>
-      <c r="BV80" s="50"/>
-      <c r="BW80" s="50"/>
-      <c r="BX80" s="50"/>
-      <c r="BY80" s="50"/>
-      <c r="BZ80" s="50"/>
-      <c r="CA80" s="51"/>
+      <c r="BV80" s="49"/>
+      <c r="BW80" s="49"/>
+      <c r="BX80" s="49"/>
+      <c r="BY80" s="49"/>
+      <c r="BZ80" s="49"/>
+      <c r="CA80" s="50"/>
       <c r="CP80" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="CQ80" s="50"/>
-      <c r="CR80" s="50"/>
-      <c r="CS80" s="50"/>
-      <c r="CT80" s="50"/>
-      <c r="CU80" s="50"/>
-      <c r="CV80" s="51"/>
+        <v>69</v>
+      </c>
+      <c r="CQ80" s="49"/>
+      <c r="CR80" s="49"/>
+      <c r="CS80" s="49"/>
+      <c r="CT80" s="49"/>
+      <c r="CU80" s="49"/>
+      <c r="CV80" s="50"/>
       <c r="DF80" s="46" t="s">
         <v>11</v>
       </c>
       <c r="DG80" s="33">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="DH80" s="54">
+      <c r="DH80" s="53">
         <v>0.95679999999999998</v>
       </c>
       <c r="DI80" s="33">
@@ -10398,36 +11982,36 @@
         <v>23</v>
       </c>
       <c r="DY80" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="DZ80" s="50"/>
-      <c r="EA80" s="50"/>
-      <c r="EB80" s="50"/>
-      <c r="EC80" s="50"/>
-      <c r="ED80" s="50"/>
-      <c r="EE80" s="51"/>
+        <v>69</v>
+      </c>
+      <c r="DZ80" s="49"/>
+      <c r="EA80" s="49"/>
+      <c r="EB80" s="49"/>
+      <c r="EC80" s="49"/>
+      <c r="ED80" s="49"/>
+      <c r="EE80" s="50"/>
       <c r="EP80" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="EQ80" s="50"/>
-      <c r="ER80" s="50"/>
-      <c r="ES80" s="50"/>
-      <c r="ET80" s="50"/>
-      <c r="EU80" s="50"/>
-      <c r="EV80" s="51"/>
+        <v>69</v>
+      </c>
+      <c r="EQ80" s="49"/>
+      <c r="ER80" s="49"/>
+      <c r="ES80" s="49"/>
+      <c r="ET80" s="49"/>
+      <c r="EU80" s="49"/>
+      <c r="EV80" s="50"/>
       <c r="FK80" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="FL80" s="50"/>
-      <c r="FM80" s="50"/>
-      <c r="FN80" s="50"/>
-      <c r="FO80" s="50"/>
-      <c r="FP80" s="50"/>
-      <c r="FQ80" s="51"/>
+        <v>69</v>
+      </c>
+      <c r="FL80" s="49"/>
+      <c r="FM80" s="49"/>
+      <c r="FN80" s="49"/>
+      <c r="FO80" s="49"/>
+      <c r="FP80" s="49"/>
+      <c r="FQ80" s="50"/>
     </row>
     <row r="81" spans="40:173" x14ac:dyDescent="0.25">
       <c r="AN81" s="46" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="AO81" s="33"/>
       <c r="AP81" s="33"/>
@@ -10436,7 +12020,7 @@
       <c r="AS81" s="33"/>
       <c r="AT81" s="24"/>
       <c r="BD81" s="46" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="BE81" s="33"/>
       <c r="BF81" s="33"/>
@@ -10445,21 +12029,21 @@
       <c r="BI81" s="33"/>
       <c r="BJ81" s="24"/>
       <c r="BU81" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="BV81" s="50"/>
-      <c r="BW81" s="50"/>
-      <c r="BX81" s="50"/>
-      <c r="BY81" s="50"/>
-      <c r="BZ81" s="50"/>
-      <c r="CA81" s="51"/>
+        <v>69</v>
+      </c>
+      <c r="BV81" s="49"/>
+      <c r="BW81" s="49"/>
+      <c r="BX81" s="49"/>
+      <c r="BY81" s="49"/>
+      <c r="BZ81" s="49"/>
+      <c r="CA81" s="50"/>
       <c r="CP81" s="46" t="s">
         <v>11</v>
       </c>
       <c r="CQ81" s="33">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="CR81" s="54">
+      <c r="CR81" s="53">
         <v>0.91590000000000005</v>
       </c>
       <c r="CS81" s="33">
@@ -10504,7 +12088,7 @@
       <c r="DZ81" s="33">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="EA81" s="54">
+      <c r="EA81" s="53">
         <v>0.94499999999999995</v>
       </c>
       <c r="EB81" s="33">
@@ -10528,7 +12112,7 @@
       <c r="EQ81" s="33">
         <v>1E-4</v>
       </c>
-      <c r="ER81" s="54">
+      <c r="ER81" s="53">
         <v>0.89139999999999997</v>
       </c>
       <c r="ES81" s="33">
@@ -10552,7 +12136,7 @@
       <c r="FL81" s="33">
         <v>0</v>
       </c>
-      <c r="FM81" s="54">
+      <c r="FM81" s="53">
         <v>0.83209999999999995</v>
       </c>
       <c r="FN81" s="33">
@@ -10623,7 +12207,7 @@
       <c r="BV82" s="33">
         <v>1E-4</v>
       </c>
-      <c r="BW82" s="54">
+      <c r="BW82" s="53">
         <v>0.9728</v>
       </c>
       <c r="BX82" s="33">
@@ -10833,12 +12417,12 @@
         <v>0.09</v>
       </c>
       <c r="DF83" s="46"/>
-      <c r="DG83" s="50"/>
-      <c r="DH83" s="50"/>
-      <c r="DI83" s="50"/>
-      <c r="DJ83" s="50"/>
-      <c r="DK83" s="50"/>
-      <c r="DL83" s="51"/>
+      <c r="DG83" s="49"/>
+      <c r="DH83" s="49"/>
+      <c r="DI83" s="49"/>
+      <c r="DJ83" s="49"/>
+      <c r="DK83" s="49"/>
+      <c r="DL83" s="50"/>
       <c r="DY83" s="46" t="s">
         <v>12</v>
       </c>
@@ -10968,40 +12552,40 @@
         <v>4.1000000000000003E-3</v>
       </c>
       <c r="CP84" s="46"/>
-      <c r="CQ84" s="50"/>
-      <c r="CR84" s="50"/>
-      <c r="CS84" s="50"/>
-      <c r="CT84" s="50"/>
-      <c r="CU84" s="50"/>
-      <c r="CV84" s="51"/>
+      <c r="CQ84" s="49"/>
+      <c r="CR84" s="49"/>
+      <c r="CS84" s="49"/>
+      <c r="CT84" s="49"/>
+      <c r="CU84" s="49"/>
+      <c r="CV84" s="50"/>
       <c r="DF84" s="46"/>
-      <c r="DG84" s="50"/>
-      <c r="DH84" s="50"/>
-      <c r="DI84" s="50"/>
-      <c r="DJ84" s="50"/>
-      <c r="DK84" s="50"/>
-      <c r="DL84" s="51"/>
+      <c r="DG84" s="49"/>
+      <c r="DH84" s="49"/>
+      <c r="DI84" s="49"/>
+      <c r="DJ84" s="49"/>
+      <c r="DK84" s="49"/>
+      <c r="DL84" s="50"/>
       <c r="DY84" s="46"/>
-      <c r="DZ84" s="50"/>
-      <c r="EA84" s="50"/>
-      <c r="EB84" s="50"/>
-      <c r="EC84" s="50"/>
-      <c r="ED84" s="50"/>
-      <c r="EE84" s="51"/>
+      <c r="DZ84" s="49"/>
+      <c r="EA84" s="49"/>
+      <c r="EB84" s="49"/>
+      <c r="EC84" s="49"/>
+      <c r="ED84" s="49"/>
+      <c r="EE84" s="50"/>
       <c r="EP84" s="46"/>
-      <c r="EQ84" s="50"/>
-      <c r="ER84" s="50"/>
-      <c r="ES84" s="50"/>
-      <c r="ET84" s="50"/>
-      <c r="EU84" s="50"/>
-      <c r="EV84" s="51"/>
+      <c r="EQ84" s="49"/>
+      <c r="ER84" s="49"/>
+      <c r="ES84" s="49"/>
+      <c r="ET84" s="49"/>
+      <c r="EU84" s="49"/>
+      <c r="EV84" s="50"/>
       <c r="FK84" s="46"/>
-      <c r="FL84" s="50"/>
-      <c r="FM84" s="50"/>
-      <c r="FN84" s="50"/>
-      <c r="FO84" s="50"/>
-      <c r="FP84" s="50"/>
-      <c r="FQ84" s="51"/>
+      <c r="FL84" s="49"/>
+      <c r="FM84" s="49"/>
+      <c r="FN84" s="49"/>
+      <c r="FO84" s="49"/>
+      <c r="FP84" s="49"/>
+      <c r="FQ84" s="50"/>
     </row>
     <row r="85" spans="40:173" x14ac:dyDescent="0.25">
       <c r="AN85" s="46"/>
@@ -11019,49 +12603,49 @@
       <c r="BI85" s="33"/>
       <c r="BJ85" s="24"/>
       <c r="BU85" s="46"/>
-      <c r="BV85" s="50"/>
-      <c r="BW85" s="50"/>
-      <c r="BX85" s="50"/>
-      <c r="BY85" s="50"/>
-      <c r="BZ85" s="50"/>
-      <c r="CA85" s="51"/>
+      <c r="BV85" s="49"/>
+      <c r="BW85" s="49"/>
+      <c r="BX85" s="49"/>
+      <c r="BY85" s="49"/>
+      <c r="BZ85" s="49"/>
+      <c r="CA85" s="50"/>
       <c r="CP85" s="46"/>
-      <c r="CQ85" s="50"/>
-      <c r="CR85" s="50"/>
-      <c r="CS85" s="50"/>
-      <c r="CT85" s="50"/>
-      <c r="CU85" s="50"/>
-      <c r="CV85" s="51"/>
+      <c r="CQ85" s="49"/>
+      <c r="CR85" s="49"/>
+      <c r="CS85" s="49"/>
+      <c r="CT85" s="49"/>
+      <c r="CU85" s="49"/>
+      <c r="CV85" s="50"/>
       <c r="DF85" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="DG85" s="50"/>
-      <c r="DH85" s="50"/>
-      <c r="DI85" s="50"/>
-      <c r="DJ85" s="50"/>
-      <c r="DK85" s="50"/>
-      <c r="DL85" s="51"/>
+        <v>70</v>
+      </c>
+      <c r="DG85" s="49"/>
+      <c r="DH85" s="49"/>
+      <c r="DI85" s="49"/>
+      <c r="DJ85" s="49"/>
+      <c r="DK85" s="49"/>
+      <c r="DL85" s="50"/>
       <c r="DY85" s="46"/>
-      <c r="DZ85" s="50"/>
-      <c r="EA85" s="50"/>
-      <c r="EB85" s="50"/>
-      <c r="EC85" s="50"/>
-      <c r="ED85" s="50"/>
-      <c r="EE85" s="51"/>
+      <c r="DZ85" s="49"/>
+      <c r="EA85" s="49"/>
+      <c r="EB85" s="49"/>
+      <c r="EC85" s="49"/>
+      <c r="ED85" s="49"/>
+      <c r="EE85" s="50"/>
       <c r="EP85" s="46"/>
-      <c r="EQ85" s="50"/>
-      <c r="ER85" s="50"/>
-      <c r="ES85" s="50"/>
-      <c r="ET85" s="50"/>
-      <c r="EU85" s="50"/>
-      <c r="EV85" s="51"/>
+      <c r="EQ85" s="49"/>
+      <c r="ER85" s="49"/>
+      <c r="ES85" s="49"/>
+      <c r="ET85" s="49"/>
+      <c r="EU85" s="49"/>
+      <c r="EV85" s="50"/>
       <c r="FK85" s="46"/>
-      <c r="FL85" s="50"/>
-      <c r="FM85" s="50"/>
-      <c r="FN85" s="50"/>
-      <c r="FO85" s="50"/>
-      <c r="FP85" s="50"/>
-      <c r="FQ85" s="51"/>
+      <c r="FL85" s="49"/>
+      <c r="FM85" s="49"/>
+      <c r="FN85" s="49"/>
+      <c r="FO85" s="49"/>
+      <c r="FP85" s="49"/>
+      <c r="FQ85" s="50"/>
     </row>
     <row r="86" spans="40:173" x14ac:dyDescent="0.25">
       <c r="AN86" s="46"/>
@@ -11079,21 +12663,21 @@
       <c r="BI86" s="33"/>
       <c r="BJ86" s="24"/>
       <c r="BU86" s="46"/>
-      <c r="BV86" s="50"/>
-      <c r="BW86" s="50"/>
-      <c r="BX86" s="50"/>
-      <c r="BY86" s="50"/>
-      <c r="BZ86" s="50"/>
-      <c r="CA86" s="51"/>
+      <c r="BV86" s="49"/>
+      <c r="BW86" s="49"/>
+      <c r="BX86" s="49"/>
+      <c r="BY86" s="49"/>
+      <c r="BZ86" s="49"/>
+      <c r="CA86" s="50"/>
       <c r="CP86" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="CQ86" s="50"/>
-      <c r="CR86" s="50"/>
-      <c r="CS86" s="50"/>
-      <c r="CT86" s="50"/>
-      <c r="CU86" s="50"/>
-      <c r="CV86" s="51"/>
+        <v>70</v>
+      </c>
+      <c r="CQ86" s="49"/>
+      <c r="CR86" s="49"/>
+      <c r="CS86" s="49"/>
+      <c r="CT86" s="49"/>
+      <c r="CU86" s="49"/>
+      <c r="CV86" s="50"/>
       <c r="DF86" s="46" t="s">
         <v>11</v>
       </c>
@@ -11112,43 +12696,43 @@
       <c r="DK86" s="33">
         <v>0</v>
       </c>
-      <c r="DL86" s="63">
+      <c r="DL86" s="59">
         <v>0.60429999999999995</v>
       </c>
       <c r="DN86" t="s">
         <v>22</v>
       </c>
       <c r="DY86" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="DZ86" s="50"/>
-      <c r="EA86" s="50"/>
-      <c r="EB86" s="50"/>
-      <c r="EC86" s="50"/>
-      <c r="ED86" s="50"/>
-      <c r="EE86" s="51"/>
+        <v>70</v>
+      </c>
+      <c r="DZ86" s="49"/>
+      <c r="EA86" s="49"/>
+      <c r="EB86" s="49"/>
+      <c r="EC86" s="49"/>
+      <c r="ED86" s="49"/>
+      <c r="EE86" s="50"/>
       <c r="EP86" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="EQ86" s="50"/>
-      <c r="ER86" s="50"/>
-      <c r="ES86" s="50"/>
-      <c r="ET86" s="50"/>
-      <c r="EU86" s="50"/>
-      <c r="EV86" s="51"/>
+        <v>70</v>
+      </c>
+      <c r="EQ86" s="49"/>
+      <c r="ER86" s="49"/>
+      <c r="ES86" s="49"/>
+      <c r="ET86" s="49"/>
+      <c r="EU86" s="49"/>
+      <c r="EV86" s="50"/>
       <c r="FK86" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="FL86" s="50"/>
-      <c r="FM86" s="50"/>
-      <c r="FN86" s="50"/>
-      <c r="FO86" s="50"/>
-      <c r="FP86" s="50"/>
-      <c r="FQ86" s="51"/>
+        <v>70</v>
+      </c>
+      <c r="FL86" s="49"/>
+      <c r="FM86" s="49"/>
+      <c r="FN86" s="49"/>
+      <c r="FO86" s="49"/>
+      <c r="FP86" s="49"/>
+      <c r="FQ86" s="50"/>
     </row>
     <row r="87" spans="40:173" x14ac:dyDescent="0.25">
       <c r="AN87" s="46" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="AO87" s="33"/>
       <c r="AP87" s="33"/>
@@ -11157,7 +12741,7 @@
       <c r="AS87" s="33"/>
       <c r="AT87" s="24"/>
       <c r="BD87" s="46" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="BE87" s="33"/>
       <c r="BF87" s="33"/>
@@ -11166,14 +12750,14 @@
       <c r="BI87" s="33"/>
       <c r="BJ87" s="24"/>
       <c r="BU87" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="BV87" s="50"/>
-      <c r="BW87" s="50"/>
-      <c r="BX87" s="50"/>
-      <c r="BY87" s="50"/>
-      <c r="BZ87" s="50"/>
-      <c r="CA87" s="51"/>
+        <v>70</v>
+      </c>
+      <c r="BV87" s="49"/>
+      <c r="BW87" s="49"/>
+      <c r="BX87" s="49"/>
+      <c r="BY87" s="49"/>
+      <c r="BZ87" s="49"/>
+      <c r="CA87" s="50"/>
       <c r="CP87" s="46" t="s">
         <v>11</v>
       </c>
@@ -11228,7 +12812,7 @@
       <c r="EA87" s="33">
         <v>3.9399999999999998E-2</v>
       </c>
-      <c r="EB87" s="54">
+      <c r="EB87" s="53">
         <v>0.96240000000000003</v>
       </c>
       <c r="EC87" s="33">
@@ -11279,7 +12863,7 @@
       <c r="FN87" s="41">
         <v>1.23E-2</v>
       </c>
-      <c r="FO87" s="55">
+      <c r="FO87" s="54">
         <v>0.92869999999999997</v>
       </c>
       <c r="FP87" s="33">
@@ -11344,7 +12928,7 @@
       <c r="BV88" s="33">
         <v>1E-4</v>
       </c>
-      <c r="BW88" s="55">
+      <c r="BW88" s="54">
         <v>0.95889999999999997</v>
       </c>
       <c r="BX88" s="33">
@@ -11560,12 +13144,12 @@
         <v>0.20169999999999999</v>
       </c>
       <c r="DF89" s="46"/>
-      <c r="DG89" s="50"/>
-      <c r="DH89" s="50"/>
-      <c r="DI89" s="50"/>
-      <c r="DJ89" s="50"/>
-      <c r="DK89" s="50"/>
-      <c r="DL89" s="51"/>
+      <c r="DG89" s="49"/>
+      <c r="DH89" s="49"/>
+      <c r="DI89" s="49"/>
+      <c r="DJ89" s="49"/>
+      <c r="DK89" s="49"/>
+      <c r="DL89" s="50"/>
       <c r="DY89" s="46" t="s">
         <v>12</v>
       </c>
@@ -11698,40 +13282,40 @@
         <v>3.5000000000000001E-3</v>
       </c>
       <c r="CP90" s="46"/>
-      <c r="CQ90" s="50"/>
-      <c r="CR90" s="50"/>
-      <c r="CS90" s="50"/>
-      <c r="CT90" s="50"/>
-      <c r="CU90" s="50"/>
-      <c r="CV90" s="51"/>
+      <c r="CQ90" s="49"/>
+      <c r="CR90" s="49"/>
+      <c r="CS90" s="49"/>
+      <c r="CT90" s="49"/>
+      <c r="CU90" s="49"/>
+      <c r="CV90" s="50"/>
       <c r="DF90" s="46"/>
-      <c r="DG90" s="50"/>
-      <c r="DH90" s="50"/>
-      <c r="DI90" s="50"/>
-      <c r="DJ90" s="50"/>
-      <c r="DK90" s="50"/>
-      <c r="DL90" s="51"/>
+      <c r="DG90" s="49"/>
+      <c r="DH90" s="49"/>
+      <c r="DI90" s="49"/>
+      <c r="DJ90" s="49"/>
+      <c r="DK90" s="49"/>
+      <c r="DL90" s="50"/>
       <c r="DY90" s="46"/>
-      <c r="DZ90" s="50"/>
-      <c r="EA90" s="50"/>
-      <c r="EB90" s="50"/>
-      <c r="EC90" s="50"/>
-      <c r="ED90" s="50"/>
-      <c r="EE90" s="51"/>
+      <c r="DZ90" s="49"/>
+      <c r="EA90" s="49"/>
+      <c r="EB90" s="49"/>
+      <c r="EC90" s="49"/>
+      <c r="ED90" s="49"/>
+      <c r="EE90" s="50"/>
       <c r="EP90" s="46"/>
-      <c r="EQ90" s="50"/>
-      <c r="ER90" s="50"/>
-      <c r="ES90" s="50"/>
-      <c r="ET90" s="50"/>
-      <c r="EU90" s="50"/>
-      <c r="EV90" s="51"/>
+      <c r="EQ90" s="49"/>
+      <c r="ER90" s="49"/>
+      <c r="ES90" s="49"/>
+      <c r="ET90" s="49"/>
+      <c r="EU90" s="49"/>
+      <c r="EV90" s="50"/>
       <c r="FK90" s="46"/>
-      <c r="FL90" s="50"/>
-      <c r="FM90" s="50"/>
-      <c r="FN90" s="50"/>
-      <c r="FO90" s="50"/>
-      <c r="FP90" s="50"/>
-      <c r="FQ90" s="51"/>
+      <c r="FL90" s="49"/>
+      <c r="FM90" s="49"/>
+      <c r="FN90" s="49"/>
+      <c r="FO90" s="49"/>
+      <c r="FP90" s="49"/>
+      <c r="FQ90" s="50"/>
     </row>
     <row r="91" spans="40:173" x14ac:dyDescent="0.25">
       <c r="AN91" s="46"/>
@@ -11749,49 +13333,49 @@
       <c r="BI91" s="33"/>
       <c r="BJ91" s="24"/>
       <c r="BU91" s="46"/>
-      <c r="BV91" s="50"/>
-      <c r="BW91" s="50"/>
-      <c r="BX91" s="50"/>
-      <c r="BY91" s="50"/>
-      <c r="BZ91" s="50"/>
-      <c r="CA91" s="51"/>
+      <c r="BV91" s="49"/>
+      <c r="BW91" s="49"/>
+      <c r="BX91" s="49"/>
+      <c r="BY91" s="49"/>
+      <c r="BZ91" s="49"/>
+      <c r="CA91" s="50"/>
       <c r="CP91" s="46"/>
-      <c r="CQ91" s="50"/>
-      <c r="CR91" s="50"/>
-      <c r="CS91" s="50"/>
-      <c r="CT91" s="50"/>
-      <c r="CU91" s="50"/>
-      <c r="CV91" s="51"/>
+      <c r="CQ91" s="49"/>
+      <c r="CR91" s="49"/>
+      <c r="CS91" s="49"/>
+      <c r="CT91" s="49"/>
+      <c r="CU91" s="49"/>
+      <c r="CV91" s="50"/>
       <c r="DF91" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="DG91" s="50"/>
-      <c r="DH91" s="50"/>
-      <c r="DI91" s="50"/>
-      <c r="DJ91" s="50"/>
-      <c r="DK91" s="50"/>
-      <c r="DL91" s="51"/>
+        <v>71</v>
+      </c>
+      <c r="DG91" s="49"/>
+      <c r="DH91" s="49"/>
+      <c r="DI91" s="49"/>
+      <c r="DJ91" s="49"/>
+      <c r="DK91" s="49"/>
+      <c r="DL91" s="50"/>
       <c r="DY91" s="46"/>
-      <c r="DZ91" s="50"/>
-      <c r="EA91" s="50"/>
-      <c r="EB91" s="50"/>
-      <c r="EC91" s="50"/>
-      <c r="ED91" s="50"/>
-      <c r="EE91" s="51"/>
+      <c r="DZ91" s="49"/>
+      <c r="EA91" s="49"/>
+      <c r="EB91" s="49"/>
+      <c r="EC91" s="49"/>
+      <c r="ED91" s="49"/>
+      <c r="EE91" s="50"/>
       <c r="EP91" s="46"/>
-      <c r="EQ91" s="50"/>
-      <c r="ER91" s="50"/>
-      <c r="ES91" s="50"/>
-      <c r="ET91" s="50"/>
-      <c r="EU91" s="50"/>
-      <c r="EV91" s="51"/>
+      <c r="EQ91" s="49"/>
+      <c r="ER91" s="49"/>
+      <c r="ES91" s="49"/>
+      <c r="ET91" s="49"/>
+      <c r="EU91" s="49"/>
+      <c r="EV91" s="50"/>
       <c r="FK91" s="46"/>
-      <c r="FL91" s="50"/>
-      <c r="FM91" s="50"/>
-      <c r="FN91" s="50"/>
-      <c r="FO91" s="50"/>
-      <c r="FP91" s="50"/>
-      <c r="FQ91" s="51"/>
+      <c r="FL91" s="49"/>
+      <c r="FM91" s="49"/>
+      <c r="FN91" s="49"/>
+      <c r="FO91" s="49"/>
+      <c r="FP91" s="49"/>
+      <c r="FQ91" s="50"/>
     </row>
     <row r="92" spans="40:173" x14ac:dyDescent="0.25">
       <c r="AN92" s="46"/>
@@ -11809,21 +13393,21 @@
       <c r="BI92" s="33"/>
       <c r="BJ92" s="24"/>
       <c r="BU92" s="46"/>
-      <c r="BV92" s="50"/>
-      <c r="BW92" s="50"/>
-      <c r="BX92" s="50"/>
-      <c r="BY92" s="50"/>
-      <c r="BZ92" s="50"/>
-      <c r="CA92" s="51"/>
+      <c r="BV92" s="49"/>
+      <c r="BW92" s="49"/>
+      <c r="BX92" s="49"/>
+      <c r="BY92" s="49"/>
+      <c r="BZ92" s="49"/>
+      <c r="CA92" s="50"/>
       <c r="CP92" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="CQ92" s="50"/>
-      <c r="CR92" s="50"/>
-      <c r="CS92" s="50"/>
-      <c r="CT92" s="50"/>
-      <c r="CU92" s="50"/>
-      <c r="CV92" s="51"/>
+        <v>71</v>
+      </c>
+      <c r="CQ92" s="49"/>
+      <c r="CR92" s="49"/>
+      <c r="CS92" s="49"/>
+      <c r="CT92" s="49"/>
+      <c r="CU92" s="49"/>
+      <c r="CV92" s="50"/>
       <c r="DF92" s="46" t="s">
         <v>11</v>
       </c>
@@ -11836,7 +13420,7 @@
       <c r="DI92" s="33">
         <v>0</v>
       </c>
-      <c r="DJ92" s="54">
+      <c r="DJ92" s="53">
         <v>0.97389999999999999</v>
       </c>
       <c r="DK92" s="33">
@@ -11849,36 +13433,36 @@
         <v>23</v>
       </c>
       <c r="DY92" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="DZ92" s="50"/>
-      <c r="EA92" s="50"/>
-      <c r="EB92" s="50"/>
-      <c r="EC92" s="50"/>
-      <c r="ED92" s="50"/>
-      <c r="EE92" s="51"/>
+        <v>71</v>
+      </c>
+      <c r="DZ92" s="49"/>
+      <c r="EA92" s="49"/>
+      <c r="EB92" s="49"/>
+      <c r="EC92" s="49"/>
+      <c r="ED92" s="49"/>
+      <c r="EE92" s="50"/>
       <c r="EP92" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="EQ92" s="50"/>
-      <c r="ER92" s="50"/>
-      <c r="ES92" s="50"/>
-      <c r="ET92" s="50"/>
-      <c r="EU92" s="50"/>
-      <c r="EV92" s="51"/>
+        <v>71</v>
+      </c>
+      <c r="EQ92" s="49"/>
+      <c r="ER92" s="49"/>
+      <c r="ES92" s="49"/>
+      <c r="ET92" s="49"/>
+      <c r="EU92" s="49"/>
+      <c r="EV92" s="50"/>
       <c r="FK92" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="FL92" s="50"/>
-      <c r="FM92" s="50"/>
-      <c r="FN92" s="50"/>
-      <c r="FO92" s="50"/>
-      <c r="FP92" s="50"/>
-      <c r="FQ92" s="51"/>
+        <v>71</v>
+      </c>
+      <c r="FL92" s="49"/>
+      <c r="FM92" s="49"/>
+      <c r="FN92" s="49"/>
+      <c r="FO92" s="49"/>
+      <c r="FP92" s="49"/>
+      <c r="FQ92" s="50"/>
     </row>
     <row r="93" spans="40:173" x14ac:dyDescent="0.25">
       <c r="AN93" s="46" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="AO93" s="33"/>
       <c r="AP93" s="33"/>
@@ -11887,7 +13471,7 @@
       <c r="AS93" s="33"/>
       <c r="AT93" s="24"/>
       <c r="BD93" s="46" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="BE93" s="33"/>
       <c r="BF93" s="33"/>
@@ -11896,14 +13480,14 @@
       <c r="BI93" s="33"/>
       <c r="BJ93" s="24"/>
       <c r="BU93" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="BV93" s="50"/>
-      <c r="BW93" s="50"/>
-      <c r="BX93" s="50"/>
-      <c r="BY93" s="50"/>
-      <c r="BZ93" s="50"/>
-      <c r="CA93" s="51"/>
+        <v>71</v>
+      </c>
+      <c r="BV93" s="49"/>
+      <c r="BW93" s="49"/>
+      <c r="BX93" s="49"/>
+      <c r="BY93" s="49"/>
+      <c r="BZ93" s="49"/>
+      <c r="CA93" s="50"/>
       <c r="CP93" s="46" t="s">
         <v>11</v>
       </c>
@@ -11916,7 +13500,7 @@
       <c r="CS93" s="33">
         <v>1.11E-2</v>
       </c>
-      <c r="CT93" s="54">
+      <c r="CT93" s="53">
         <v>0.96340000000000003</v>
       </c>
       <c r="CU93" s="33">
@@ -11961,7 +13545,7 @@
       <c r="EB93" s="33">
         <v>8.2000000000000007E-3</v>
       </c>
-      <c r="EC93" s="54">
+      <c r="EC93" s="53">
         <v>0.96919999999999995</v>
       </c>
       <c r="ED93" s="33">
@@ -11985,7 +13569,7 @@
       <c r="ES93" s="33">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="ET93" s="54">
+      <c r="ET93" s="53">
         <v>0.86939999999999995</v>
       </c>
       <c r="EU93" s="33">
@@ -12009,7 +13593,7 @@
       <c r="FN93" s="33">
         <v>1.77E-2</v>
       </c>
-      <c r="FO93" s="54">
+      <c r="FO93" s="53">
         <v>0.96250000000000002</v>
       </c>
       <c r="FP93" s="33">
@@ -12080,7 +13664,7 @@
       <c r="BX94" s="33">
         <v>1.04E-2</v>
       </c>
-      <c r="BY94" s="54">
+      <c r="BY94" s="53">
         <v>0.95669999999999999</v>
       </c>
       <c r="BZ94" s="33">
@@ -12284,12 +13868,12 @@
         <v>1.3599999999999999E-2</v>
       </c>
       <c r="DF95" s="46"/>
-      <c r="DG95" s="50"/>
-      <c r="DH95" s="50"/>
-      <c r="DI95" s="50"/>
-      <c r="DJ95" s="50"/>
-      <c r="DK95" s="50"/>
-      <c r="DL95" s="51"/>
+      <c r="DG95" s="49"/>
+      <c r="DH95" s="49"/>
+      <c r="DI95" s="49"/>
+      <c r="DJ95" s="49"/>
+      <c r="DK95" s="49"/>
+      <c r="DL95" s="50"/>
       <c r="DY95" s="46" t="s">
         <v>12</v>
       </c>
@@ -12419,40 +14003,40 @@
         <v>2.3999999999999998E-3</v>
       </c>
       <c r="CP96" s="46"/>
-      <c r="CQ96" s="50"/>
-      <c r="CR96" s="50"/>
-      <c r="CS96" s="50"/>
-      <c r="CT96" s="50"/>
-      <c r="CU96" s="50"/>
-      <c r="CV96" s="51"/>
+      <c r="CQ96" s="49"/>
+      <c r="CR96" s="49"/>
+      <c r="CS96" s="49"/>
+      <c r="CT96" s="49"/>
+      <c r="CU96" s="49"/>
+      <c r="CV96" s="50"/>
       <c r="DF96" s="46"/>
-      <c r="DG96" s="50"/>
-      <c r="DH96" s="50"/>
-      <c r="DI96" s="50"/>
-      <c r="DJ96" s="50"/>
-      <c r="DK96" s="50"/>
-      <c r="DL96" s="51"/>
+      <c r="DG96" s="49"/>
+      <c r="DH96" s="49"/>
+      <c r="DI96" s="49"/>
+      <c r="DJ96" s="49"/>
+      <c r="DK96" s="49"/>
+      <c r="DL96" s="50"/>
       <c r="DY96" s="46"/>
-      <c r="DZ96" s="50"/>
-      <c r="EA96" s="50"/>
-      <c r="EB96" s="50"/>
-      <c r="EC96" s="50"/>
-      <c r="ED96" s="50"/>
-      <c r="EE96" s="51"/>
+      <c r="DZ96" s="49"/>
+      <c r="EA96" s="49"/>
+      <c r="EB96" s="49"/>
+      <c r="EC96" s="49"/>
+      <c r="ED96" s="49"/>
+      <c r="EE96" s="50"/>
       <c r="EP96" s="46"/>
-      <c r="EQ96" s="50"/>
-      <c r="ER96" s="50"/>
-      <c r="ES96" s="50"/>
-      <c r="ET96" s="50"/>
-      <c r="EU96" s="50"/>
-      <c r="EV96" s="51"/>
+      <c r="EQ96" s="49"/>
+      <c r="ER96" s="49"/>
+      <c r="ES96" s="49"/>
+      <c r="ET96" s="49"/>
+      <c r="EU96" s="49"/>
+      <c r="EV96" s="50"/>
       <c r="FK96" s="46"/>
-      <c r="FL96" s="50"/>
-      <c r="FM96" s="50"/>
-      <c r="FN96" s="50"/>
-      <c r="FO96" s="50"/>
-      <c r="FP96" s="50"/>
-      <c r="FQ96" s="51"/>
+      <c r="FL96" s="49"/>
+      <c r="FM96" s="49"/>
+      <c r="FN96" s="49"/>
+      <c r="FO96" s="49"/>
+      <c r="FP96" s="49"/>
+      <c r="FQ96" s="50"/>
     </row>
     <row r="97" spans="40:173" x14ac:dyDescent="0.25">
       <c r="AN97" s="46"/>
@@ -12470,49 +14054,49 @@
       <c r="BI97" s="33"/>
       <c r="BJ97" s="24"/>
       <c r="BU97" s="46"/>
-      <c r="BV97" s="50"/>
-      <c r="BW97" s="50"/>
-      <c r="BX97" s="50"/>
-      <c r="BY97" s="50"/>
-      <c r="BZ97" s="50"/>
-      <c r="CA97" s="51"/>
+      <c r="BV97" s="49"/>
+      <c r="BW97" s="49"/>
+      <c r="BX97" s="49"/>
+      <c r="BY97" s="49"/>
+      <c r="BZ97" s="49"/>
+      <c r="CA97" s="50"/>
       <c r="CP97" s="46"/>
-      <c r="CQ97" s="50"/>
-      <c r="CR97" s="50"/>
-      <c r="CS97" s="50"/>
-      <c r="CT97" s="50"/>
-      <c r="CU97" s="50"/>
-      <c r="CV97" s="51"/>
+      <c r="CQ97" s="49"/>
+      <c r="CR97" s="49"/>
+      <c r="CS97" s="49"/>
+      <c r="CT97" s="49"/>
+      <c r="CU97" s="49"/>
+      <c r="CV97" s="50"/>
       <c r="DF97" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="DG97" s="50"/>
-      <c r="DH97" s="50"/>
-      <c r="DI97" s="50"/>
-      <c r="DJ97" s="50"/>
-      <c r="DK97" s="50"/>
-      <c r="DL97" s="51"/>
+        <v>72</v>
+      </c>
+      <c r="DG97" s="49"/>
+      <c r="DH97" s="49"/>
+      <c r="DI97" s="49"/>
+      <c r="DJ97" s="49"/>
+      <c r="DK97" s="49"/>
+      <c r="DL97" s="50"/>
       <c r="DY97" s="46"/>
-      <c r="DZ97" s="50"/>
-      <c r="EA97" s="50"/>
-      <c r="EB97" s="50"/>
-      <c r="EC97" s="50"/>
-      <c r="ED97" s="50"/>
-      <c r="EE97" s="51"/>
+      <c r="DZ97" s="49"/>
+      <c r="EA97" s="49"/>
+      <c r="EB97" s="49"/>
+      <c r="EC97" s="49"/>
+      <c r="ED97" s="49"/>
+      <c r="EE97" s="50"/>
       <c r="EP97" s="46"/>
-      <c r="EQ97" s="50"/>
-      <c r="ER97" s="50"/>
-      <c r="ES97" s="50"/>
-      <c r="ET97" s="50"/>
-      <c r="EU97" s="50"/>
-      <c r="EV97" s="51"/>
+      <c r="EQ97" s="49"/>
+      <c r="ER97" s="49"/>
+      <c r="ES97" s="49"/>
+      <c r="ET97" s="49"/>
+      <c r="EU97" s="49"/>
+      <c r="EV97" s="50"/>
       <c r="FK97" s="46"/>
-      <c r="FL97" s="50"/>
-      <c r="FM97" s="50"/>
-      <c r="FN97" s="50"/>
-      <c r="FO97" s="50"/>
-      <c r="FP97" s="50"/>
-      <c r="FQ97" s="51"/>
+      <c r="FL97" s="49"/>
+      <c r="FM97" s="49"/>
+      <c r="FN97" s="49"/>
+      <c r="FO97" s="49"/>
+      <c r="FP97" s="49"/>
+      <c r="FQ97" s="50"/>
     </row>
     <row r="98" spans="40:173" x14ac:dyDescent="0.25">
       <c r="AN98" s="46"/>
@@ -12530,21 +14114,21 @@
       <c r="BI98" s="33"/>
       <c r="BJ98" s="24"/>
       <c r="BU98" s="46"/>
-      <c r="BV98" s="50"/>
-      <c r="BW98" s="50"/>
-      <c r="BX98" s="50"/>
-      <c r="BY98" s="50"/>
-      <c r="BZ98" s="50"/>
-      <c r="CA98" s="51"/>
+      <c r="BV98" s="49"/>
+      <c r="BW98" s="49"/>
+      <c r="BX98" s="49"/>
+      <c r="BY98" s="49"/>
+      <c r="BZ98" s="49"/>
+      <c r="CA98" s="50"/>
       <c r="CP98" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="CQ98" s="50"/>
-      <c r="CR98" s="50"/>
-      <c r="CS98" s="50"/>
-      <c r="CT98" s="50"/>
-      <c r="CU98" s="50"/>
-      <c r="CV98" s="51"/>
+        <v>72</v>
+      </c>
+      <c r="CQ98" s="49"/>
+      <c r="CR98" s="49"/>
+      <c r="CS98" s="49"/>
+      <c r="CT98" s="49"/>
+      <c r="CU98" s="49"/>
+      <c r="CV98" s="50"/>
       <c r="DF98" s="46" t="s">
         <v>11</v>
       </c>
@@ -12563,43 +14147,43 @@
       <c r="DK98" s="37">
         <v>0.1799</v>
       </c>
-      <c r="DL98" s="63">
+      <c r="DL98" s="59">
         <v>0.70379999999999998</v>
       </c>
       <c r="DN98" t="s">
         <v>22</v>
       </c>
       <c r="DY98" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="DZ98" s="50"/>
-      <c r="EA98" s="50"/>
-      <c r="EB98" s="50"/>
-      <c r="EC98" s="50"/>
-      <c r="ED98" s="50"/>
-      <c r="EE98" s="51"/>
+        <v>72</v>
+      </c>
+      <c r="DZ98" s="49"/>
+      <c r="EA98" s="49"/>
+      <c r="EB98" s="49"/>
+      <c r="EC98" s="49"/>
+      <c r="ED98" s="49"/>
+      <c r="EE98" s="50"/>
       <c r="EP98" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="EQ98" s="50"/>
-      <c r="ER98" s="50"/>
-      <c r="ES98" s="50"/>
-      <c r="ET98" s="50"/>
-      <c r="EU98" s="50"/>
-      <c r="EV98" s="51"/>
+        <v>72</v>
+      </c>
+      <c r="EQ98" s="49"/>
+      <c r="ER98" s="49"/>
+      <c r="ES98" s="49"/>
+      <c r="ET98" s="49"/>
+      <c r="EU98" s="49"/>
+      <c r="EV98" s="50"/>
       <c r="FK98" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="FL98" s="50"/>
-      <c r="FM98" s="50"/>
-      <c r="FN98" s="50"/>
-      <c r="FO98" s="50"/>
-      <c r="FP98" s="50"/>
-      <c r="FQ98" s="51"/>
+        <v>72</v>
+      </c>
+      <c r="FL98" s="49"/>
+      <c r="FM98" s="49"/>
+      <c r="FN98" s="49"/>
+      <c r="FO98" s="49"/>
+      <c r="FP98" s="49"/>
+      <c r="FQ98" s="50"/>
     </row>
     <row r="99" spans="40:173" x14ac:dyDescent="0.25">
       <c r="AN99" s="46" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="AO99" s="33"/>
       <c r="AP99" s="33"/>
@@ -12608,7 +14192,7 @@
       <c r="AS99" s="33"/>
       <c r="AT99" s="24"/>
       <c r="BD99" s="46" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="BE99" s="33"/>
       <c r="BF99" s="33"/>
@@ -12617,14 +14201,14 @@
       <c r="BI99" s="33"/>
       <c r="BJ99" s="24"/>
       <c r="BU99" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="BV99" s="50"/>
-      <c r="BW99" s="50"/>
-      <c r="BX99" s="50"/>
-      <c r="BY99" s="50"/>
-      <c r="BZ99" s="50"/>
-      <c r="CA99" s="51"/>
+        <v>72</v>
+      </c>
+      <c r="BV99" s="49"/>
+      <c r="BW99" s="49"/>
+      <c r="BX99" s="49"/>
+      <c r="BY99" s="49"/>
+      <c r="BZ99" s="49"/>
+      <c r="CA99" s="50"/>
       <c r="CP99" s="46" t="s">
         <v>11</v>
       </c>
@@ -12640,7 +14224,7 @@
       <c r="CT99" s="33">
         <v>4.8300000000000003E-2</v>
       </c>
-      <c r="CU99" s="54">
+      <c r="CU99" s="53">
         <v>0.85619999999999996</v>
       </c>
       <c r="CV99" s="24">
@@ -12685,7 +14269,7 @@
       <c r="EC99" s="33">
         <v>9.9299999999999999E-2</v>
       </c>
-      <c r="ED99" s="54">
+      <c r="ED99" s="53">
         <v>0.87250000000000005</v>
       </c>
       <c r="EE99" s="24">
@@ -12706,7 +14290,7 @@
       <c r="ES99" s="33">
         <v>1.5E-3</v>
       </c>
-      <c r="ET99" s="55">
+      <c r="ET99" s="54">
         <v>0.60880000000000001</v>
       </c>
       <c r="EU99" s="41">
@@ -12733,7 +14317,7 @@
       <c r="FO99" s="33">
         <v>0</v>
       </c>
-      <c r="FP99" s="54">
+      <c r="FP99" s="53">
         <v>0.96730000000000005</v>
       </c>
       <c r="FQ99" s="24">
@@ -12804,10 +14388,10 @@
       <c r="BY100" s="33">
         <v>0.1681</v>
       </c>
-      <c r="BZ100" s="56">
+      <c r="BZ100" s="55">
         <v>0.67110000000000003</v>
       </c>
-      <c r="CA100" s="57">
+      <c r="CA100" s="56">
         <v>0.3715</v>
       </c>
       <c r="CC100" t="s">
@@ -13005,12 +14589,12 @@
         <v>1.6000000000000001E-3</v>
       </c>
       <c r="DF101" s="46"/>
-      <c r="DG101" s="50"/>
-      <c r="DH101" s="50"/>
-      <c r="DI101" s="50"/>
-      <c r="DJ101" s="50"/>
-      <c r="DK101" s="50"/>
-      <c r="DL101" s="51"/>
+      <c r="DG101" s="49"/>
+      <c r="DH101" s="49"/>
+      <c r="DI101" s="49"/>
+      <c r="DJ101" s="49"/>
+      <c r="DK101" s="49"/>
+      <c r="DL101" s="50"/>
       <c r="DY101" s="46" t="s">
         <v>12</v>
       </c>
@@ -13140,40 +14724,40 @@
         <v>0.3715</v>
       </c>
       <c r="CP102" s="46"/>
-      <c r="CQ102" s="50"/>
-      <c r="CR102" s="50"/>
-      <c r="CS102" s="50"/>
-      <c r="CT102" s="50"/>
-      <c r="CU102" s="50"/>
-      <c r="CV102" s="51"/>
+      <c r="CQ102" s="49"/>
+      <c r="CR102" s="49"/>
+      <c r="CS102" s="49"/>
+      <c r="CT102" s="49"/>
+      <c r="CU102" s="49"/>
+      <c r="CV102" s="50"/>
       <c r="DF102" s="46"/>
-      <c r="DG102" s="50"/>
-      <c r="DH102" s="50"/>
-      <c r="DI102" s="50"/>
-      <c r="DJ102" s="50"/>
-      <c r="DK102" s="50"/>
-      <c r="DL102" s="51"/>
+      <c r="DG102" s="49"/>
+      <c r="DH102" s="49"/>
+      <c r="DI102" s="49"/>
+      <c r="DJ102" s="49"/>
+      <c r="DK102" s="49"/>
+      <c r="DL102" s="50"/>
       <c r="DY102" s="46"/>
-      <c r="DZ102" s="50"/>
-      <c r="EA102" s="50"/>
-      <c r="EB102" s="50"/>
-      <c r="EC102" s="50"/>
-      <c r="ED102" s="50"/>
-      <c r="EE102" s="51"/>
+      <c r="DZ102" s="49"/>
+      <c r="EA102" s="49"/>
+      <c r="EB102" s="49"/>
+      <c r="EC102" s="49"/>
+      <c r="ED102" s="49"/>
+      <c r="EE102" s="50"/>
       <c r="EP102" s="46"/>
-      <c r="EQ102" s="50"/>
-      <c r="ER102" s="50"/>
-      <c r="ES102" s="50"/>
-      <c r="ET102" s="50"/>
-      <c r="EU102" s="50"/>
-      <c r="EV102" s="51"/>
+      <c r="EQ102" s="49"/>
+      <c r="ER102" s="49"/>
+      <c r="ES102" s="49"/>
+      <c r="ET102" s="49"/>
+      <c r="EU102" s="49"/>
+      <c r="EV102" s="50"/>
       <c r="FK102" s="46"/>
-      <c r="FL102" s="50"/>
-      <c r="FM102" s="50"/>
-      <c r="FN102" s="50"/>
-      <c r="FO102" s="50"/>
-      <c r="FP102" s="50"/>
-      <c r="FQ102" s="51"/>
+      <c r="FL102" s="49"/>
+      <c r="FM102" s="49"/>
+      <c r="FN102" s="49"/>
+      <c r="FO102" s="49"/>
+      <c r="FP102" s="49"/>
+      <c r="FQ102" s="50"/>
     </row>
     <row r="103" spans="40:173" x14ac:dyDescent="0.25">
       <c r="AN103" s="46"/>
@@ -13191,49 +14775,49 @@
       <c r="BI103" s="33"/>
       <c r="BJ103" s="24"/>
       <c r="BU103" s="46"/>
-      <c r="BV103" s="50"/>
-      <c r="BW103" s="50"/>
-      <c r="BX103" s="50"/>
-      <c r="BY103" s="50"/>
-      <c r="BZ103" s="50"/>
-      <c r="CA103" s="51"/>
+      <c r="BV103" s="49"/>
+      <c r="BW103" s="49"/>
+      <c r="BX103" s="49"/>
+      <c r="BY103" s="49"/>
+      <c r="BZ103" s="49"/>
+      <c r="CA103" s="50"/>
       <c r="CP103" s="46"/>
-      <c r="CQ103" s="50"/>
-      <c r="CR103" s="50"/>
-      <c r="CS103" s="50"/>
-      <c r="CT103" s="50"/>
-      <c r="CU103" s="50"/>
-      <c r="CV103" s="51"/>
+      <c r="CQ103" s="49"/>
+      <c r="CR103" s="49"/>
+      <c r="CS103" s="49"/>
+      <c r="CT103" s="49"/>
+      <c r="CU103" s="49"/>
+      <c r="CV103" s="50"/>
       <c r="DF103" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="DG103" s="50"/>
-      <c r="DH103" s="50"/>
-      <c r="DI103" s="50"/>
-      <c r="DJ103" s="50"/>
-      <c r="DK103" s="50"/>
-      <c r="DL103" s="51"/>
+        <v>73</v>
+      </c>
+      <c r="DG103" s="49"/>
+      <c r="DH103" s="49"/>
+      <c r="DI103" s="49"/>
+      <c r="DJ103" s="49"/>
+      <c r="DK103" s="49"/>
+      <c r="DL103" s="50"/>
       <c r="DY103" s="46"/>
-      <c r="DZ103" s="50"/>
-      <c r="EA103" s="50"/>
-      <c r="EB103" s="50"/>
-      <c r="EC103" s="50"/>
-      <c r="ED103" s="50"/>
-      <c r="EE103" s="51"/>
+      <c r="DZ103" s="49"/>
+      <c r="EA103" s="49"/>
+      <c r="EB103" s="49"/>
+      <c r="EC103" s="49"/>
+      <c r="ED103" s="49"/>
+      <c r="EE103" s="50"/>
       <c r="EP103" s="46"/>
-      <c r="EQ103" s="50"/>
-      <c r="ER103" s="50"/>
-      <c r="ES103" s="50"/>
-      <c r="ET103" s="50"/>
-      <c r="EU103" s="50"/>
-      <c r="EV103" s="51"/>
+      <c r="EQ103" s="49"/>
+      <c r="ER103" s="49"/>
+      <c r="ES103" s="49"/>
+      <c r="ET103" s="49"/>
+      <c r="EU103" s="49"/>
+      <c r="EV103" s="50"/>
       <c r="FK103" s="46"/>
-      <c r="FL103" s="50"/>
-      <c r="FM103" s="50"/>
-      <c r="FN103" s="50"/>
-      <c r="FO103" s="50"/>
-      <c r="FP103" s="50"/>
-      <c r="FQ103" s="51"/>
+      <c r="FL103" s="49"/>
+      <c r="FM103" s="49"/>
+      <c r="FN103" s="49"/>
+      <c r="FO103" s="49"/>
+      <c r="FP103" s="49"/>
+      <c r="FQ103" s="50"/>
     </row>
     <row r="104" spans="40:173" x14ac:dyDescent="0.25">
       <c r="AN104" s="46"/>
@@ -13251,21 +14835,21 @@
       <c r="BI104" s="33"/>
       <c r="BJ104" s="24"/>
       <c r="BU104" s="46"/>
-      <c r="BV104" s="50"/>
-      <c r="BW104" s="50"/>
-      <c r="BX104" s="50"/>
-      <c r="BY104" s="50"/>
-      <c r="BZ104" s="50"/>
-      <c r="CA104" s="51"/>
+      <c r="BV104" s="49"/>
+      <c r="BW104" s="49"/>
+      <c r="BX104" s="49"/>
+      <c r="BY104" s="49"/>
+      <c r="BZ104" s="49"/>
+      <c r="CA104" s="50"/>
       <c r="CP104" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="CQ104" s="50"/>
-      <c r="CR104" s="50"/>
-      <c r="CS104" s="50"/>
-      <c r="CT104" s="50"/>
-      <c r="CU104" s="50"/>
-      <c r="CV104" s="51"/>
+        <v>73</v>
+      </c>
+      <c r="CQ104" s="49"/>
+      <c r="CR104" s="49"/>
+      <c r="CS104" s="49"/>
+      <c r="CT104" s="49"/>
+      <c r="CU104" s="49"/>
+      <c r="CV104" s="50"/>
       <c r="DF104" s="46" t="s">
         <v>11</v>
       </c>
@@ -13284,43 +14868,43 @@
       <c r="DK104" s="33">
         <v>0</v>
       </c>
-      <c r="DL104" s="60">
+      <c r="DL104" s="57">
         <v>0.97240000000000004</v>
       </c>
       <c r="DN104" t="s">
         <v>23</v>
       </c>
       <c r="DY104" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="DZ104" s="50"/>
-      <c r="EA104" s="50"/>
-      <c r="EB104" s="50"/>
-      <c r="EC104" s="50"/>
-      <c r="ED104" s="50"/>
-      <c r="EE104" s="51"/>
+        <v>73</v>
+      </c>
+      <c r="DZ104" s="49"/>
+      <c r="EA104" s="49"/>
+      <c r="EB104" s="49"/>
+      <c r="EC104" s="49"/>
+      <c r="ED104" s="49"/>
+      <c r="EE104" s="50"/>
       <c r="EP104" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="EQ104" s="50"/>
-      <c r="ER104" s="50"/>
-      <c r="ES104" s="50"/>
-      <c r="ET104" s="50"/>
-      <c r="EU104" s="50"/>
-      <c r="EV104" s="51"/>
+        <v>73</v>
+      </c>
+      <c r="EQ104" s="49"/>
+      <c r="ER104" s="49"/>
+      <c r="ES104" s="49"/>
+      <c r="ET104" s="49"/>
+      <c r="EU104" s="49"/>
+      <c r="EV104" s="50"/>
       <c r="FK104" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="FL104" s="50"/>
-      <c r="FM104" s="50"/>
-      <c r="FN104" s="50"/>
-      <c r="FO104" s="50"/>
-      <c r="FP104" s="50"/>
-      <c r="FQ104" s="51"/>
+        <v>73</v>
+      </c>
+      <c r="FL104" s="49"/>
+      <c r="FM104" s="49"/>
+      <c r="FN104" s="49"/>
+      <c r="FO104" s="49"/>
+      <c r="FP104" s="49"/>
+      <c r="FQ104" s="50"/>
     </row>
     <row r="105" spans="40:173" x14ac:dyDescent="0.25">
       <c r="AN105" s="46" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="AO105" s="33"/>
       <c r="AP105" s="33"/>
@@ -13329,7 +14913,7 @@
       <c r="AS105" s="33"/>
       <c r="AT105" s="24"/>
       <c r="BD105" s="46" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="BE105" s="33"/>
       <c r="BF105" s="33"/>
@@ -13338,14 +14922,14 @@
       <c r="BI105" s="33"/>
       <c r="BJ105" s="24"/>
       <c r="BU105" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="BV105" s="50"/>
-      <c r="BW105" s="50"/>
-      <c r="BX105" s="50"/>
-      <c r="BY105" s="50"/>
-      <c r="BZ105" s="50"/>
-      <c r="CA105" s="51"/>
+        <v>73</v>
+      </c>
+      <c r="BV105" s="49"/>
+      <c r="BW105" s="49"/>
+      <c r="BX105" s="49"/>
+      <c r="BY105" s="49"/>
+      <c r="BZ105" s="49"/>
+      <c r="CA105" s="50"/>
       <c r="CP105" s="46" t="s">
         <v>11</v>
       </c>
@@ -13364,7 +14948,7 @@
       <c r="CU105" s="33">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="CV105" s="60">
+      <c r="CV105" s="57">
         <v>0.96079999999999999</v>
       </c>
       <c r="CX105" t="s">
@@ -13409,7 +14993,7 @@
       <c r="ED105" s="33">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="EE105" s="60">
+      <c r="EE105" s="57">
         <v>0.97840000000000005</v>
       </c>
       <c r="EG105" t="s">
@@ -13433,7 +15017,7 @@
       <c r="EU105" s="33">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="EV105" s="60">
+      <c r="EV105" s="57">
         <v>0.8659</v>
       </c>
       <c r="EX105" t="s">
@@ -13457,7 +15041,7 @@
       <c r="FP105" s="33">
         <v>6.1999999999999998E-3</v>
       </c>
-      <c r="FQ105" s="60">
+      <c r="FQ105" s="57">
         <v>0.97019999999999995</v>
       </c>
     </row>
@@ -13811,7 +15395,7 @@
       <c r="AT108" s="25">
         <v>-3.0499999999999999E-2</v>
       </c>
-      <c r="BD108" s="48" t="s">
+      <c r="BD108" s="47" t="s">
         <v>12</v>
       </c>
       <c r="BE108" s="43">
@@ -13855,7 +15439,7 @@
       </c>
     </row>
     <row r="109" spans="40:173" x14ac:dyDescent="0.25">
-      <c r="BD109" s="49"/>
+      <c r="BD109" s="48"/>
       <c r="BE109" s="44"/>
       <c r="BF109" s="44"/>
       <c r="BG109" s="44"/>
@@ -13865,10 +15449,10 @@
       <c r="DF109" t="s">
         <v>20</v>
       </c>
-      <c r="DG109" s="52" t="s">
+      <c r="DG109" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="DH109" s="52"/>
+      <c r="DH109" s="51"/>
       <c r="DI109" s="20"/>
     </row>
     <row r="110" spans="40:173" x14ac:dyDescent="0.25">
@@ -13886,7 +15470,7 @@
       <c r="DZ110" t="s">
         <v>55</v>
       </c>
-      <c r="EA110" s="52"/>
+      <c r="EA110" s="51"/>
       <c r="EB110" s="20"/>
       <c r="EP110" t="s">
         <v>20</v>
@@ -13894,7 +15478,7 @@
       <c r="EQ110" t="s">
         <v>58</v>
       </c>
-      <c r="ER110" s="52"/>
+      <c r="ER110" s="51"/>
       <c r="ES110" s="20"/>
       <c r="FK110" t="s">
         <v>20</v>
@@ -13929,13 +15513,190 @@
       <c r="BW111" s="61"/>
       <c r="BX111" s="19"/>
     </row>
+    <row r="115" spans="48:51" x14ac:dyDescent="0.25">
+      <c r="AV115" s="61" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW115" s="61"/>
+      <c r="AX115" s="61"/>
+      <c r="AY115" s="61"/>
+    </row>
+    <row r="116" spans="48:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="117" spans="48:51" x14ac:dyDescent="0.25">
+      <c r="AV117" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="AW117" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX117" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="AY117" s="22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="118" spans="48:51" x14ac:dyDescent="0.25">
+      <c r="AV118" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="AW118" s="33">
+        <f>AV118/3</f>
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="AX118" s="33">
+        <v>8400</v>
+      </c>
+      <c r="AY118" s="24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="119" spans="48:51" x14ac:dyDescent="0.25">
+      <c r="AV119" s="23">
+        <v>0.08</v>
+      </c>
+      <c r="AW119" s="33">
+        <f t="shared" ref="AW119:AW121" si="0">AV119/3</f>
+        <v>2.6666666666666668E-2</v>
+      </c>
+      <c r="AX119" s="33">
+        <v>3000</v>
+      </c>
+      <c r="AY119" s="24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="120" spans="48:51" x14ac:dyDescent="0.25">
+      <c r="AV120" s="23">
+        <v>0.2</v>
+      </c>
+      <c r="AW120" s="33">
+        <f t="shared" si="0"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="AX120" s="33">
+        <v>1350</v>
+      </c>
+      <c r="AY120" s="24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="121" spans="48:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AV121" s="62">
+        <v>0.6</v>
+      </c>
+      <c r="AW121" s="36">
+        <f>AV121/6</f>
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="AX121" s="36">
+        <v>90</v>
+      </c>
+      <c r="AY121" s="25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="123" spans="48:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="124" spans="48:51" x14ac:dyDescent="0.25">
+      <c r="AV124" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="AW124" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX124" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="AY124" s="22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="125" spans="48:51" x14ac:dyDescent="0.25">
+      <c r="AV125" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="AW125" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX125" s="33">
+        <v>3250</v>
+      </c>
+      <c r="AY125" s="24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="126" spans="48:51" x14ac:dyDescent="0.25">
+      <c r="AV126" s="23">
+        <v>0.08</v>
+      </c>
+      <c r="AW126" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX126" s="33">
+        <v>1500</v>
+      </c>
+      <c r="AY126" s="24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="127" spans="48:51" x14ac:dyDescent="0.25">
+      <c r="AV127" s="23">
+        <v>0.2</v>
+      </c>
+      <c r="AW127" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX127" s="33">
+        <v>1300</v>
+      </c>
+      <c r="AY127" s="24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="128" spans="48:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AV128" s="62">
+        <v>0.6</v>
+      </c>
+      <c r="AW128" s="64" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX128" s="36">
+        <v>130</v>
+      </c>
+      <c r="AY128" s="25" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="FL66:FN66"/>
-    <mergeCell ref="FL110:FN110"/>
-    <mergeCell ref="DG65:DI65"/>
-    <mergeCell ref="DZ66:EB66"/>
-    <mergeCell ref="EQ66:ES66"/>
+  <mergeCells count="41">
+    <mergeCell ref="FL29:FM29"/>
+    <mergeCell ref="AO74:AP74"/>
+    <mergeCell ref="BE74:BF74"/>
+    <mergeCell ref="BV74:BW74"/>
+    <mergeCell ref="CQ73:CR73"/>
+    <mergeCell ref="DG72:DH72"/>
+    <mergeCell ref="DZ73:EA73"/>
+    <mergeCell ref="EQ73:ER73"/>
+    <mergeCell ref="FL73:FM73"/>
+    <mergeCell ref="BE30:BF30"/>
+    <mergeCell ref="BV30:BW30"/>
+    <mergeCell ref="CQ29:CR29"/>
+    <mergeCell ref="DG28:DH28"/>
+    <mergeCell ref="EQ29:ER29"/>
+    <mergeCell ref="AV115:AY115"/>
+    <mergeCell ref="DZ29:EA29"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="O3:S3"/>
+    <mergeCell ref="AA3:AE3"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="O16:S16"/>
+    <mergeCell ref="AB16:AF16"/>
+    <mergeCell ref="O30:U30"/>
+    <mergeCell ref="D43:I43"/>
+    <mergeCell ref="AC30:AH30"/>
+    <mergeCell ref="Q43:V43"/>
+    <mergeCell ref="AB43:AG43"/>
+    <mergeCell ref="AO30:AP30"/>
     <mergeCell ref="BV111:BW111"/>
     <mergeCell ref="BV67:BW67"/>
     <mergeCell ref="CQ66:CR66"/>
@@ -13944,6 +15705,11 @@
     <mergeCell ref="BE67:BF67"/>
     <mergeCell ref="AO67:AP67"/>
     <mergeCell ref="BE111:BF111"/>
+    <mergeCell ref="FL66:FN66"/>
+    <mergeCell ref="FL110:FN110"/>
+    <mergeCell ref="DG65:DI65"/>
+    <mergeCell ref="DZ66:EB66"/>
+    <mergeCell ref="EQ66:ES66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Sprawozdania/Scenariusz 4/Wyniki do scenariusza 4.xlsx
+++ b/Sprawozdania/Scenariusz 4/Wyniki do scenariusza 4.xlsx
@@ -818,9 +818,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -828,11 +825,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -900,7 +900,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1092,11 +1091,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="376264848"/>
-        <c:axId val="377989456"/>
+        <c:axId val="286339552"/>
+        <c:axId val="286341232"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="376264848"/>
+        <c:axId val="286339552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1146,7 +1145,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1213,12 +1211,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="377989456"/>
+        <c:crossAx val="286341232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="377989456"/>
+        <c:axId val="286341232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1268,7 +1266,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1335,7 +1332,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="376264848"/>
+        <c:crossAx val="286339552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1349,7 +1346,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2624,8 +2620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:FQ128"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Z86" sqref="Z86"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AO33" sqref="AO33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2684,27 +2680,27 @@
       <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="61" t="s">
+      <c r="C3" s="67" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="O3" s="61" t="s">
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="O3" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="61"/>
-      <c r="R3" s="61"/>
-      <c r="S3" s="61"/>
-      <c r="AA3" s="61" t="s">
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="67"/>
+      <c r="AA3" s="67" t="s">
         <v>77</v>
       </c>
-      <c r="AB3" s="61"/>
-      <c r="AC3" s="61"/>
-      <c r="AD3" s="61"/>
-      <c r="AE3" s="61"/>
+      <c r="AB3" s="67"/>
+      <c r="AC3" s="67"/>
+      <c r="AD3" s="67"/>
+      <c r="AE3" s="67"/>
       <c r="AM3" t="s">
         <v>4</v>
       </c>
@@ -3957,27 +3953,27 @@
       </c>
     </row>
     <row r="16" spans="2:168" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="61" t="s">
+      <c r="C16" s="67" t="s">
         <v>78</v>
       </c>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
-      <c r="O16" s="61" t="s">
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="67"/>
+      <c r="O16" s="67" t="s">
         <v>78</v>
       </c>
-      <c r="P16" s="61"/>
-      <c r="Q16" s="61"/>
-      <c r="R16" s="61"/>
-      <c r="S16" s="61"/>
-      <c r="AB16" s="61" t="s">
+      <c r="P16" s="67"/>
+      <c r="Q16" s="67"/>
+      <c r="R16" s="67"/>
+      <c r="S16" s="67"/>
+      <c r="AB16" s="67" t="s">
         <v>78</v>
       </c>
-      <c r="AC16" s="61"/>
-      <c r="AD16" s="61"/>
-      <c r="AE16" s="61"/>
-      <c r="AF16" s="61"/>
+      <c r="AC16" s="67"/>
+      <c r="AD16" s="67"/>
+      <c r="AE16" s="67"/>
+      <c r="AF16" s="67"/>
     </row>
     <row r="17" spans="2:173" x14ac:dyDescent="0.25">
       <c r="C17" s="1">
@@ -4900,44 +4896,44 @@
       </c>
     </row>
     <row r="28" spans="2:173" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="DG28" s="65"/>
-      <c r="DH28" s="65"/>
+      <c r="DG28" s="66"/>
+      <c r="DH28" s="66"/>
     </row>
     <row r="29" spans="2:173" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>2</v>
       </c>
-      <c r="CQ29" s="65"/>
-      <c r="CR29" s="65"/>
+      <c r="CQ29" s="66"/>
+      <c r="CR29" s="66"/>
       <c r="DF29" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="DG29" s="66">
-        <v>1</v>
-      </c>
-      <c r="DH29" s="66">
+      <c r="DG29" s="64">
+        <v>1</v>
+      </c>
+      <c r="DH29" s="64">
         <v>2</v>
       </c>
-      <c r="DI29" s="66">
+      <c r="DI29" s="64">
         <v>3</v>
       </c>
-      <c r="DJ29" s="66">
+      <c r="DJ29" s="64">
         <v>4</v>
       </c>
-      <c r="DK29" s="66">
+      <c r="DK29" s="64">
         <v>5</v>
       </c>
-      <c r="DL29" s="67">
+      <c r="DL29" s="65">
         <v>6</v>
       </c>
-      <c r="DZ29" s="65"/>
-      <c r="EA29" s="65"/>
-      <c r="EQ29" s="65"/>
-      <c r="ER29" s="65"/>
-      <c r="FL29" s="65" t="s">
+      <c r="DZ29" s="66"/>
+      <c r="EA29" s="66"/>
+      <c r="EQ29" s="66"/>
+      <c r="ER29" s="66"/>
+      <c r="FL29" s="66" t="s">
         <v>74</v>
       </c>
-      <c r="FM29" s="65"/>
+      <c r="FM29" s="66"/>
     </row>
     <row r="30" spans="2:173" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
@@ -4950,48 +4946,48 @@
       <c r="F30" s="51"/>
       <c r="G30" s="51"/>
       <c r="H30" s="51"/>
-      <c r="O30" s="61" t="s">
+      <c r="O30" s="67" t="s">
         <v>80</v>
       </c>
-      <c r="P30" s="61"/>
-      <c r="Q30" s="61"/>
-      <c r="R30" s="61"/>
-      <c r="S30" s="61"/>
-      <c r="T30" s="61"/>
-      <c r="U30" s="61"/>
-      <c r="AC30" s="61" t="s">
+      <c r="P30" s="67"/>
+      <c r="Q30" s="67"/>
+      <c r="R30" s="67"/>
+      <c r="S30" s="67"/>
+      <c r="T30" s="67"/>
+      <c r="U30" s="67"/>
+      <c r="AC30" s="67" t="s">
         <v>81</v>
       </c>
-      <c r="AD30" s="61"/>
-      <c r="AE30" s="61"/>
-      <c r="AF30" s="61"/>
-      <c r="AG30" s="61"/>
-      <c r="AH30" s="61"/>
-      <c r="AO30" s="65"/>
-      <c r="AP30" s="65"/>
-      <c r="BE30" s="65"/>
-      <c r="BF30" s="65"/>
-      <c r="BV30" s="65"/>
-      <c r="BW30" s="65"/>
+      <c r="AD30" s="67"/>
+      <c r="AE30" s="67"/>
+      <c r="AF30" s="67"/>
+      <c r="AG30" s="67"/>
+      <c r="AH30" s="67"/>
+      <c r="AO30" s="66"/>
+      <c r="AP30" s="66"/>
+      <c r="BE30" s="66"/>
+      <c r="BF30" s="66"/>
+      <c r="BV30" s="66"/>
+      <c r="BW30" s="66"/>
       <c r="CP30" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="CQ30" s="66">
-        <v>1</v>
-      </c>
-      <c r="CR30" s="66">
+      <c r="CQ30" s="64">
+        <v>1</v>
+      </c>
+      <c r="CR30" s="64">
         <v>2</v>
       </c>
-      <c r="CS30" s="66">
+      <c r="CS30" s="64">
         <v>3</v>
       </c>
-      <c r="CT30" s="66">
+      <c r="CT30" s="64">
         <v>4</v>
       </c>
-      <c r="CU30" s="66">
+      <c r="CU30" s="64">
         <v>5</v>
       </c>
-      <c r="CV30" s="67">
+      <c r="CV30" s="65">
         <v>6</v>
       </c>
       <c r="DF30" s="46" t="s">
@@ -5018,64 +5014,64 @@
       <c r="DY30" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="DZ30" s="66">
-        <v>1</v>
-      </c>
-      <c r="EA30" s="66">
+      <c r="DZ30" s="64">
+        <v>1</v>
+      </c>
+      <c r="EA30" s="64">
         <v>2</v>
       </c>
-      <c r="EB30" s="66">
+      <c r="EB30" s="64">
         <v>3</v>
       </c>
-      <c r="EC30" s="66">
+      <c r="EC30" s="64">
         <v>4</v>
       </c>
-      <c r="ED30" s="66">
+      <c r="ED30" s="64">
         <v>5</v>
       </c>
-      <c r="EE30" s="67">
+      <c r="EE30" s="65">
         <v>6</v>
       </c>
       <c r="EP30" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="EQ30" s="66">
-        <v>1</v>
-      </c>
-      <c r="ER30" s="66">
+      <c r="EQ30" s="64">
+        <v>1</v>
+      </c>
+      <c r="ER30" s="64">
         <v>2</v>
       </c>
-      <c r="ES30" s="66">
+      <c r="ES30" s="64">
         <v>3</v>
       </c>
-      <c r="ET30" s="66">
+      <c r="ET30" s="64">
         <v>4</v>
       </c>
-      <c r="EU30" s="66">
+      <c r="EU30" s="64">
         <v>5</v>
       </c>
-      <c r="EV30" s="67">
+      <c r="EV30" s="65">
         <v>6</v>
       </c>
       <c r="FK30" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="FL30" s="66">
-        <v>1</v>
-      </c>
-      <c r="FM30" s="66">
+      <c r="FL30" s="64">
+        <v>1</v>
+      </c>
+      <c r="FM30" s="64">
         <v>2</v>
       </c>
-      <c r="FN30" s="66">
+      <c r="FN30" s="64">
         <v>3</v>
       </c>
-      <c r="FO30" s="66">
+      <c r="FO30" s="64">
         <v>4</v>
       </c>
-      <c r="FP30" s="66">
+      <c r="FP30" s="64">
         <v>5</v>
       </c>
-      <c r="FQ30" s="67">
+      <c r="FQ30" s="65">
         <v>6</v>
       </c>
     </row>
@@ -5083,64 +5079,64 @@
       <c r="AN31" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="AO31" s="66">
-        <v>1</v>
-      </c>
-      <c r="AP31" s="66">
+      <c r="AO31" s="64">
+        <v>1</v>
+      </c>
+      <c r="AP31" s="64">
         <v>2</v>
       </c>
-      <c r="AQ31" s="66">
+      <c r="AQ31" s="64">
         <v>3</v>
       </c>
-      <c r="AR31" s="66">
+      <c r="AR31" s="64">
         <v>4</v>
       </c>
-      <c r="AS31" s="66">
+      <c r="AS31" s="64">
         <v>5</v>
       </c>
-      <c r="AT31" s="67">
+      <c r="AT31" s="65">
         <v>6</v>
       </c>
       <c r="BD31" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="BE31" s="66">
-        <v>1</v>
-      </c>
-      <c r="BF31" s="66">
+      <c r="BE31" s="64">
+        <v>1</v>
+      </c>
+      <c r="BF31" s="64">
         <v>2</v>
       </c>
-      <c r="BG31" s="66">
+      <c r="BG31" s="64">
         <v>3</v>
       </c>
-      <c r="BH31" s="66">
+      <c r="BH31" s="64">
         <v>4</v>
       </c>
-      <c r="BI31" s="66">
+      <c r="BI31" s="64">
         <v>5</v>
       </c>
-      <c r="BJ31" s="67">
+      <c r="BJ31" s="65">
         <v>6</v>
       </c>
       <c r="BU31" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="BV31" s="66">
-        <v>1</v>
-      </c>
-      <c r="BW31" s="66">
+      <c r="BV31" s="64">
+        <v>1</v>
+      </c>
+      <c r="BW31" s="64">
         <v>2</v>
       </c>
-      <c r="BX31" s="66">
+      <c r="BX31" s="64">
         <v>3</v>
       </c>
-      <c r="BY31" s="66">
+      <c r="BY31" s="64">
         <v>4</v>
       </c>
-      <c r="BZ31" s="66">
+      <c r="BZ31" s="64">
         <v>5</v>
       </c>
-      <c r="CA31" s="67">
+      <c r="CA31" s="65">
         <v>6</v>
       </c>
       <c r="CP31" s="46" t="s">
@@ -7416,30 +7412,30 @@
       <c r="FQ42" s="50"/>
     </row>
     <row r="43" spans="3:173" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D43" s="65" t="s">
+      <c r="D43" s="66" t="s">
         <v>82</v>
       </c>
-      <c r="E43" s="65"/>
-      <c r="F43" s="65"/>
-      <c r="G43" s="65"/>
-      <c r="H43" s="65"/>
-      <c r="I43" s="65"/>
-      <c r="Q43" s="65" t="s">
+      <c r="E43" s="66"/>
+      <c r="F43" s="66"/>
+      <c r="G43" s="66"/>
+      <c r="H43" s="66"/>
+      <c r="I43" s="66"/>
+      <c r="Q43" s="66" t="s">
         <v>83</v>
       </c>
-      <c r="R43" s="65"/>
-      <c r="S43" s="65"/>
-      <c r="T43" s="65"/>
-      <c r="U43" s="65"/>
-      <c r="V43" s="65"/>
-      <c r="AB43" s="65" t="s">
+      <c r="R43" s="66"/>
+      <c r="S43" s="66"/>
+      <c r="T43" s="66"/>
+      <c r="U43" s="66"/>
+      <c r="V43" s="66"/>
+      <c r="AB43" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="AC43" s="65"/>
-      <c r="AD43" s="65"/>
-      <c r="AE43" s="65"/>
-      <c r="AF43" s="65"/>
-      <c r="AG43" s="65"/>
+      <c r="AC43" s="66"/>
+      <c r="AD43" s="66"/>
+      <c r="AE43" s="66"/>
+      <c r="AF43" s="66"/>
+      <c r="AG43" s="66"/>
       <c r="AN43" s="46" t="s">
         <v>16</v>
       </c>
@@ -10968,68 +10964,68 @@
       <c r="DF65" t="s">
         <v>20</v>
       </c>
-      <c r="DG65" s="61" t="s">
+      <c r="DG65" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="DH65" s="61"/>
-      <c r="DI65" s="61"/>
+      <c r="DH65" s="67"/>
+      <c r="DI65" s="67"/>
     </row>
     <row r="66" spans="39:173" x14ac:dyDescent="0.25">
       <c r="CP66" t="s">
         <v>20</v>
       </c>
-      <c r="CQ66" s="61" t="s">
+      <c r="CQ66" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="CR66" s="61"/>
+      <c r="CR66" s="67"/>
       <c r="CS66" s="19"/>
       <c r="DY66" t="s">
         <v>20</v>
       </c>
-      <c r="DZ66" s="61" t="s">
+      <c r="DZ66" s="67" t="s">
         <v>54</v>
       </c>
-      <c r="EA66" s="61"/>
-      <c r="EB66" s="61"/>
+      <c r="EA66" s="67"/>
+      <c r="EB66" s="67"/>
       <c r="EP66" t="s">
         <v>20</v>
       </c>
-      <c r="EQ66" s="61" t="s">
+      <c r="EQ66" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="ER66" s="61"/>
-      <c r="ES66" s="61"/>
+      <c r="ER66" s="67"/>
+      <c r="ES66" s="67"/>
       <c r="FK66" t="s">
         <v>20</v>
       </c>
-      <c r="FL66" s="61" t="s">
+      <c r="FL66" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="FM66" s="61"/>
-      <c r="FN66" s="61"/>
+      <c r="FM66" s="67"/>
+      <c r="FN66" s="67"/>
     </row>
     <row r="67" spans="39:173" x14ac:dyDescent="0.25">
       <c r="AN67" t="s">
         <v>20</v>
       </c>
-      <c r="AO67" s="61" t="s">
+      <c r="AO67" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="AP67" s="61"/>
+      <c r="AP67" s="67"/>
       <c r="BD67" t="s">
         <v>20</v>
       </c>
-      <c r="BE67" s="61" t="s">
+      <c r="BE67" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="BF67" s="61"/>
+      <c r="BF67" s="67"/>
       <c r="BU67" t="s">
         <v>20</v>
       </c>
-      <c r="BV67" s="61" t="s">
+      <c r="BV67" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="BW67" s="61"/>
+      <c r="BW67" s="67"/>
       <c r="BX67" s="19"/>
     </row>
     <row r="68" spans="39:173" x14ac:dyDescent="0.25">
@@ -11038,100 +11034,100 @@
       <c r="BX68" s="51"/>
     </row>
     <row r="72" spans="39:173" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="DG72" s="65" t="s">
+      <c r="DG72" s="66" t="s">
         <v>74</v>
       </c>
-      <c r="DH72" s="65"/>
+      <c r="DH72" s="66"/>
     </row>
     <row r="73" spans="39:173" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="CO73" t="s">
         <v>47</v>
       </c>
-      <c r="CQ73" s="65" t="s">
+      <c r="CQ73" s="66" t="s">
         <v>74</v>
       </c>
-      <c r="CR73" s="65"/>
+      <c r="CR73" s="66"/>
       <c r="DE73" t="s">
         <v>48</v>
       </c>
       <c r="DF73" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="DG73" s="66">
-        <v>1</v>
-      </c>
-      <c r="DH73" s="66">
+      <c r="DG73" s="64">
+        <v>1</v>
+      </c>
+      <c r="DH73" s="64">
         <v>2</v>
       </c>
-      <c r="DI73" s="66">
+      <c r="DI73" s="64">
         <v>3</v>
       </c>
-      <c r="DJ73" s="66">
+      <c r="DJ73" s="64">
         <v>4</v>
       </c>
-      <c r="DK73" s="66">
+      <c r="DK73" s="64">
         <v>5</v>
       </c>
-      <c r="DL73" s="67">
+      <c r="DL73" s="65">
         <v>6</v>
       </c>
-      <c r="DZ73" s="65" t="s">
+      <c r="DZ73" s="66" t="s">
         <v>74</v>
       </c>
-      <c r="EA73" s="65"/>
-      <c r="EQ73" s="65" t="s">
+      <c r="EA73" s="66"/>
+      <c r="EQ73" s="66" t="s">
         <v>74</v>
       </c>
-      <c r="ER73" s="65"/>
-      <c r="FL73" s="65" t="s">
+      <c r="ER73" s="66"/>
+      <c r="FL73" s="66" t="s">
         <v>74</v>
       </c>
-      <c r="FM73" s="65"/>
+      <c r="FM73" s="66"/>
     </row>
     <row r="74" spans="39:173" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AM74" t="s">
         <v>5</v>
       </c>
-      <c r="AO74" s="65" t="s">
+      <c r="AO74" s="66" t="s">
         <v>74</v>
       </c>
-      <c r="AP74" s="65"/>
+      <c r="AP74" s="66"/>
       <c r="BC74" t="s">
         <v>26</v>
       </c>
-      <c r="BE74" s="65" t="s">
+      <c r="BE74" s="66" t="s">
         <v>74</v>
       </c>
-      <c r="BF74" s="65"/>
+      <c r="BF74" s="66"/>
       <c r="BT74" t="s">
         <v>46</v>
       </c>
-      <c r="BV74" s="65" t="s">
+      <c r="BV74" s="66" t="s">
         <v>74</v>
       </c>
-      <c r="BW74" s="65"/>
+      <c r="BW74" s="66"/>
       <c r="CO74" t="s">
         <v>31</v>
       </c>
       <c r="CP74" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="CQ74" s="66">
-        <v>1</v>
-      </c>
-      <c r="CR74" s="66">
+      <c r="CQ74" s="64">
+        <v>1</v>
+      </c>
+      <c r="CR74" s="64">
         <v>2</v>
       </c>
-      <c r="CS74" s="66">
+      <c r="CS74" s="64">
         <v>3</v>
       </c>
-      <c r="CT74" s="66">
+      <c r="CT74" s="64">
         <v>4</v>
       </c>
-      <c r="CU74" s="66">
+      <c r="CU74" s="64">
         <v>5</v>
       </c>
-      <c r="CV74" s="67">
+      <c r="CV74" s="65">
         <v>6</v>
       </c>
       <c r="DE74" t="s">
@@ -11167,22 +11163,22 @@
       <c r="DY74" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="DZ74" s="66">
-        <v>1</v>
-      </c>
-      <c r="EA74" s="66">
+      <c r="DZ74" s="64">
+        <v>1</v>
+      </c>
+      <c r="EA74" s="64">
         <v>2</v>
       </c>
-      <c r="EB74" s="66">
+      <c r="EB74" s="64">
         <v>3</v>
       </c>
-      <c r="EC74" s="66">
+      <c r="EC74" s="64">
         <v>4</v>
       </c>
-      <c r="ED74" s="66">
+      <c r="ED74" s="64">
         <v>5</v>
       </c>
-      <c r="EE74" s="67">
+      <c r="EE74" s="65">
         <v>6</v>
       </c>
       <c r="EO74" t="s">
@@ -11191,22 +11187,22 @@
       <c r="EP74" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="EQ74" s="66">
-        <v>1</v>
-      </c>
-      <c r="ER74" s="66">
+      <c r="EQ74" s="64">
+        <v>1</v>
+      </c>
+      <c r="ER74" s="64">
         <v>2</v>
       </c>
-      <c r="ES74" s="66">
+      <c r="ES74" s="64">
         <v>3</v>
       </c>
-      <c r="ET74" s="66">
+      <c r="ET74" s="64">
         <v>4</v>
       </c>
-      <c r="EU74" s="66">
+      <c r="EU74" s="64">
         <v>5</v>
       </c>
-      <c r="EV74" s="67">
+      <c r="EV74" s="65">
         <v>6</v>
       </c>
       <c r="FJ74" t="s">
@@ -11215,22 +11211,22 @@
       <c r="FK74" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="FL74" s="66">
-        <v>1</v>
-      </c>
-      <c r="FM74" s="66">
+      <c r="FL74" s="64">
+        <v>1</v>
+      </c>
+      <c r="FM74" s="64">
         <v>2</v>
       </c>
-      <c r="FN74" s="66">
+      <c r="FN74" s="64">
         <v>3</v>
       </c>
-      <c r="FO74" s="66">
+      <c r="FO74" s="64">
         <v>4</v>
       </c>
-      <c r="FP74" s="66">
+      <c r="FP74" s="64">
         <v>5</v>
       </c>
-      <c r="FQ74" s="67">
+      <c r="FQ74" s="65">
         <v>6</v>
       </c>
     </row>
@@ -11241,22 +11237,22 @@
       <c r="AN75" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="AO75" s="66">
-        <v>1</v>
-      </c>
-      <c r="AP75" s="66">
+      <c r="AO75" s="64">
+        <v>1</v>
+      </c>
+      <c r="AP75" s="64">
         <v>2</v>
       </c>
-      <c r="AQ75" s="66">
+      <c r="AQ75" s="64">
         <v>3</v>
       </c>
-      <c r="AR75" s="66">
+      <c r="AR75" s="64">
         <v>4</v>
       </c>
-      <c r="AS75" s="66">
+      <c r="AS75" s="64">
         <v>5</v>
       </c>
-      <c r="AT75" s="67">
+      <c r="AT75" s="65">
         <v>6</v>
       </c>
       <c r="BC75" t="s">
@@ -11265,22 +11261,22 @@
       <c r="BD75" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="BE75" s="66">
-        <v>1</v>
-      </c>
-      <c r="BF75" s="66">
+      <c r="BE75" s="64">
+        <v>1</v>
+      </c>
+      <c r="BF75" s="64">
         <v>2</v>
       </c>
-      <c r="BG75" s="66">
+      <c r="BG75" s="64">
         <v>3</v>
       </c>
-      <c r="BH75" s="66">
+      <c r="BH75" s="64">
         <v>4</v>
       </c>
-      <c r="BI75" s="66">
+      <c r="BI75" s="64">
         <v>5</v>
       </c>
-      <c r="BJ75" s="67">
+      <c r="BJ75" s="65">
         <v>6</v>
       </c>
       <c r="BT75" t="s">
@@ -11289,22 +11285,22 @@
       <c r="BU75" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="BV75" s="66">
-        <v>1</v>
-      </c>
-      <c r="BW75" s="66">
+      <c r="BV75" s="64">
+        <v>1</v>
+      </c>
+      <c r="BW75" s="64">
         <v>2</v>
       </c>
-      <c r="BX75" s="66">
+      <c r="BX75" s="64">
         <v>3</v>
       </c>
-      <c r="BY75" s="66">
+      <c r="BY75" s="64">
         <v>4</v>
       </c>
-      <c r="BZ75" s="66">
+      <c r="BZ75" s="64">
         <v>5</v>
       </c>
-      <c r="CA75" s="67">
+      <c r="CA75" s="65">
         <v>6</v>
       </c>
       <c r="CP75" s="46" t="s">
@@ -15459,10 +15455,10 @@
       <c r="CP110" t="s">
         <v>20</v>
       </c>
-      <c r="CQ110" s="61" t="s">
+      <c r="CQ110" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="CR110" s="61"/>
+      <c r="CR110" s="67"/>
       <c r="CS110" s="19"/>
       <c r="DY110" t="s">
         <v>20</v>
@@ -15483,43 +15479,43 @@
       <c r="FK110" t="s">
         <v>20</v>
       </c>
-      <c r="FL110" s="61" t="s">
+      <c r="FL110" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="FM110" s="61"/>
-      <c r="FN110" s="61"/>
+      <c r="FM110" s="67"/>
+      <c r="FN110" s="67"/>
     </row>
     <row r="111" spans="40:173" x14ac:dyDescent="0.25">
       <c r="AN111" t="s">
         <v>20</v>
       </c>
-      <c r="AO111" s="61" t="s">
+      <c r="AO111" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="AP111" s="61"/>
+      <c r="AP111" s="67"/>
       <c r="BD111" t="s">
         <v>20</v>
       </c>
-      <c r="BE111" s="61" t="s">
+      <c r="BE111" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="BF111" s="61"/>
+      <c r="BF111" s="67"/>
       <c r="BU111" t="s">
         <v>20</v>
       </c>
-      <c r="BV111" s="61" t="s">
+      <c r="BV111" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="BW111" s="61"/>
+      <c r="BW111" s="67"/>
       <c r="BX111" s="19"/>
     </row>
     <row r="115" spans="48:51" x14ac:dyDescent="0.25">
-      <c r="AV115" s="61" t="s">
+      <c r="AV115" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="AW115" s="61"/>
-      <c r="AX115" s="61"/>
-      <c r="AY115" s="61"/>
+      <c r="AW115" s="67"/>
+      <c r="AX115" s="67"/>
+      <c r="AY115" s="67"/>
     </row>
     <row r="116" spans="48:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="117" spans="48:51" x14ac:dyDescent="0.25">
@@ -15556,7 +15552,7 @@
         <v>0.08</v>
       </c>
       <c r="AW119" s="33">
-        <f t="shared" ref="AW119:AW121" si="0">AV119/3</f>
+        <f t="shared" ref="AW119:AW120" si="0">AV119/3</f>
         <v>2.6666666666666668E-2</v>
       </c>
       <c r="AX119" s="33">
@@ -15582,7 +15578,7 @@
       </c>
     </row>
     <row r="121" spans="48:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AV121" s="62">
+      <c r="AV121" s="61">
         <v>0.6</v>
       </c>
       <c r="AW121" s="36">
@@ -15615,7 +15611,7 @@
       <c r="AV125" s="23">
         <v>0.01</v>
       </c>
-      <c r="AW125" s="63" t="s">
+      <c r="AW125" s="62" t="s">
         <v>67</v>
       </c>
       <c r="AX125" s="33">
@@ -15629,7 +15625,7 @@
       <c r="AV126" s="23">
         <v>0.08</v>
       </c>
-      <c r="AW126" s="63" t="s">
+      <c r="AW126" s="62" t="s">
         <v>67</v>
       </c>
       <c r="AX126" s="33">
@@ -15643,7 +15639,7 @@
       <c r="AV127" s="23">
         <v>0.2</v>
       </c>
-      <c r="AW127" s="63" t="s">
+      <c r="AW127" s="62" t="s">
         <v>67</v>
       </c>
       <c r="AX127" s="33">
@@ -15654,10 +15650,10 @@
       </c>
     </row>
     <row r="128" spans="48:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AV128" s="62">
+      <c r="AV128" s="61">
         <v>0.6</v>
       </c>
-      <c r="AW128" s="64" t="s">
+      <c r="AW128" s="63" t="s">
         <v>67</v>
       </c>
       <c r="AX128" s="36">
@@ -15669,18 +15665,18 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="FL29:FM29"/>
-    <mergeCell ref="AO74:AP74"/>
-    <mergeCell ref="BE74:BF74"/>
-    <mergeCell ref="BV74:BW74"/>
-    <mergeCell ref="CQ73:CR73"/>
-    <mergeCell ref="DG72:DH72"/>
-    <mergeCell ref="DZ73:EA73"/>
-    <mergeCell ref="EQ73:ER73"/>
-    <mergeCell ref="FL73:FM73"/>
-    <mergeCell ref="BE30:BF30"/>
-    <mergeCell ref="BV30:BW30"/>
-    <mergeCell ref="CQ29:CR29"/>
+    <mergeCell ref="FL110:FN110"/>
+    <mergeCell ref="DG65:DI65"/>
+    <mergeCell ref="DZ66:EB66"/>
+    <mergeCell ref="EQ66:ES66"/>
+    <mergeCell ref="BV111:BW111"/>
+    <mergeCell ref="BV67:BW67"/>
+    <mergeCell ref="CQ66:CR66"/>
+    <mergeCell ref="CQ110:CR110"/>
+    <mergeCell ref="AO111:AP111"/>
+    <mergeCell ref="BE67:BF67"/>
+    <mergeCell ref="AO67:AP67"/>
+    <mergeCell ref="BE111:BF111"/>
     <mergeCell ref="DG28:DH28"/>
     <mergeCell ref="EQ29:ER29"/>
     <mergeCell ref="AV115:AY115"/>
@@ -15697,19 +15693,19 @@
     <mergeCell ref="Q43:V43"/>
     <mergeCell ref="AB43:AG43"/>
     <mergeCell ref="AO30:AP30"/>
-    <mergeCell ref="BV111:BW111"/>
-    <mergeCell ref="BV67:BW67"/>
-    <mergeCell ref="CQ66:CR66"/>
-    <mergeCell ref="CQ110:CR110"/>
-    <mergeCell ref="AO111:AP111"/>
-    <mergeCell ref="BE67:BF67"/>
-    <mergeCell ref="AO67:AP67"/>
-    <mergeCell ref="BE111:BF111"/>
+    <mergeCell ref="FL29:FM29"/>
+    <mergeCell ref="AO74:AP74"/>
+    <mergeCell ref="BE74:BF74"/>
+    <mergeCell ref="BV74:BW74"/>
+    <mergeCell ref="CQ73:CR73"/>
+    <mergeCell ref="DG72:DH72"/>
+    <mergeCell ref="DZ73:EA73"/>
+    <mergeCell ref="EQ73:ER73"/>
+    <mergeCell ref="FL73:FM73"/>
+    <mergeCell ref="BE30:BF30"/>
+    <mergeCell ref="BV30:BW30"/>
+    <mergeCell ref="CQ29:CR29"/>
     <mergeCell ref="FL66:FN66"/>
-    <mergeCell ref="FL110:FN110"/>
-    <mergeCell ref="DG65:DI65"/>
-    <mergeCell ref="DZ66:EB66"/>
-    <mergeCell ref="EQ66:ES66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
